--- a/Data Entry - 5th World Psoriasis & Psoriatic Arthritis Conference 2018 - Case format (2).xlsx
+++ b/Data Entry - 5th World Psoriasis & Psoriatic Arthritis Conference 2018 - Case format (2).xlsx
@@ -1,148 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristoffergustafsson/Dropbox (Monocl)/MSW/Products/Beetroot/Recruitment/Content Scraper/Case/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DCAA02E-0ED2-074D-AF37-BE7FB49F36C0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="9940" yWindow="460" windowWidth="23660" windowHeight="18420" xr2:uid="{C45B8A85-0AD1-5B4F-AA91-339396CCEE84}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="9940" yWindow="460" windowWidth="23660" windowHeight="18420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="181029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
-  <si>
-    <t>About the person</t>
-  </si>
-  <si>
-    <t>About the session/topic</t>
-  </si>
-  <si>
-    <t>Affiliation(s) Name(s)</t>
-  </si>
-  <si>
-    <t>Person's Location</t>
-  </si>
-  <si>
-    <t>Session Name</t>
-  </si>
-  <si>
-    <t>Topic Title</t>
-  </si>
-  <si>
-    <t>Presentation Abstract</t>
-  </si>
-  <si>
-    <t>IL­22 INDUCES KERATINOCYTES HYPERPROLIFERATION IN PSORIASIS VIA MIR­21 AND MIR­31 UPREGULATION</t>
-  </si>
-  <si>
-    <t>Psoriasis is a chronic inflammatory skin disease that affects people of all ages with an estimated 3% prevalence worldwide. It manifests as thick red irritated skin lesions due to imbalanced keratinocytes hyperproliferation and differentiation caused mainly by increased activation of IL-22 pathway in keratinocytes. Emer- ging studies showed a specific psoriatic miRs signature where miR-21 and miR-31 are one of the most upregulated miRs. The latters act by favoring cellular proliferation and inflammation. Hence, re-conciliating the microRNAs and the immunopathogenic occasions responsible for psoriasis development can be a new approach for developing effective mechanism and target-based agents to treat psoriasis.
-The common hyper-proliferation effect of IL-22, miR-21 and miR-31 prompted us to look after a potential interaction between these actors. The expression levels of those 2 microRNAs and that of their targets were evaluated both in vitro and in vivo studies in presence or absence of IL-22.
-We first exploited different skin models to investigate a potential connection between IL-22 and miR-21 or miR-31. The qPCR analysis showed a significant increase in the relative expression (RE) of both miRs in the different models upon IL-22 stimula- tion during 24h compared to untreated cells. These observations indicate the implication of miR-21 and miR-31 in proliferation- differentiation processes in the different layers of the epidermis. We also examined the miR-21 target RE PTEN involved in cell growth and apoptosis control and the miR-31 target RE ppp6c involved in G1 to S phase transition restriction. In line with the upregulation of miR-21 and miR-31, IL-22 stimulation resulted in significant downregulation of both targets at the genomic and proteomic levels.
-We next investigated the in vivo correlation between IL-22 and miR-21 or miR-31 respectively in the development of psoriatic lesion. We used the imiquimod-induced psoriasiform skin inflam- mation in Wild type and IL-22 deficient mice (known to be almost protected from IMQ). Mice displaying a less severe disease form had less miR-21 expression. By contrast, WT mice treated with IMQ exhibited significantly higher miR-21 RE than IL-22-/- mice. Furthermore, miR-31 expression in IL-22-/- mice was identical to miR-31 expression in WT control mice. These results suggest a direct correlation between IL-22 pathway and miR-31 epidermal expression. In line with these observations, the miR targets (PTEN and ppp6c) were contrariwise proportional to miRs expression confirming by that the specificity of the IL-22/miR-21 and IL-22/ miR-31 correlation.
-These findings identify IL-22 as a key regulator of miRs implica- ted in multiple signaling pathways that coordinate keratinocytes proliferation activity</t>
-  </si>
-  <si>
-    <t>Florence Abdallah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Centre de Biophysique Moléculaire, CNRS UPR4301 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orléans, France </t>
-  </si>
-  <si>
-    <t>SERUM CONCENTRACION OF IFN­GAMMA IN PATIENTS WITH PSORIASIS: CORRELATION WITH CLINICAL TYPE AND SEVERITY OF DISEASE</t>
-  </si>
-  <si>
-    <t>Introduction: Psoriasis is a multifactorial chronic inflammatory disease. The etiopathogenesis of the disease is still unclear but there is evidence that many of cytokines released by keratinocytes and inflammatory leukocytes may contribute to the induction or persistence of the inflammatory process in psoriasis.
-Objectives: The aim of the study was to evaluate serum concen- trations of INF-gamma in patients with psoriasis and the healthy subjects and also to assess a possible association between IFN- gamma, clinical type and severity of disease.
-Methods: The study included a total of 60 patients with psoriasis, both genders and all of ages. There were 20 healthy subjects in the control group. According to the clinical type of disease, patients with psoriasis were divided into four groups: psoriasis vulgaris, psoriasis pustulosa, psoriasis erythrodermica and psoriasis arth- ropatica. Blood samples were collected from all psoriasis patients and from healthy control subjects. Serum IFN-gamma levels were measured by an enzyme-linked immunosorbent assay (ELISA) technique. The severity of psoriasis vulgaris was assessed by Psoriasis Area and Severity Index (PASI) score.
-Results: Of the total number of patients suffering from psoriasis 42 (70%) had psoriasis vulgaris. The second most frequent was psoriasis erythrodermica 9 (15%), while 6 (10%) patients had psoriasis pustulosa and 3 (5%) psoriasis arthropatica. The serum concentartion of IFN-gamma in patients with psoriasis was sig- nificialy higher than that in the control group (1.91+1.79 pg/ml vs 0.91+0.38 pg/ml, respectively). Significantly elevated serum IFN-gamma concentrations were noticed in patients with psoriasis vulgaris (2.15+0.30 pg/ml), compared with patients suffering from psoriasis erythrodermica (1.57+0.68 pg/ml), psoriasis arthropa- tica (1.33+0.53 pg/ml), and in particular patients suffering from psoriasis pustulosa (1.08+0.21 pg/ml) who had the lowest mean serum concentration of IFN-gamma. There was no statistically significant difference between the mean values of IFN-gamma compared to the clinical type of psoriasis (p &gt; 0.05). In the group of patients with psoriasis vulgaris 36 (85.71%) patients had mild form of disease with PASI &lt;50, and 6 (14.29%) patients had severe disease with PASI &gt; 50. It was not found statistically significant correlation between IFN-gamma and PASI score.
-Conclusions: The results of this study showed that psoriasis is associated with significant changes in serum concentracion of IFN- gamma. There was no statistically significant correlation between serum IFN-gamma concentracions, clinical type of psoriasis, and also severity of psoriasis vulgaris evaluated by PASI score. References:
-Baliwag J, Barnes DH, Johnston A. Cytokines in psoriasis. Cytokine 2015; 73 (2):342-350.
-Takahashi H, Tsuji H, Hashimoto Y, Ishida-Yamamoto A, Iizuka H Serum cytokines and growth factor levels in Japanese patients with psoriasis, Clin Exp Dermatol 2010; 35:645-649.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nermina Ovčina-Kurtović </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dermatovenerology Department Clinical center University of Sarajevo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bosnia and Herzegovina </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emina Kasumagić-Halilović </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jasmina Muhović </t>
-  </si>
-  <si>
-    <t>P098</t>
-  </si>
-  <si>
-    <t>P099</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>Name (incl. titles if any mentioned)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -154,7 +55,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -177,36 +78,141 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -506,158 +512,1396 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF16D8C-BBCA-9D49-BBDF-2113AB7F9E94}">
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="35.83203125" customWidth="1"/>
-    <col min="2" max="2" width="33.1640625" customWidth="1"/>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
-    <col min="4" max="4" width="22.1640625" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" customWidth="1"/>
-    <col min="6" max="6" width="18.5" customWidth="1"/>
+    <col width="35.83203125" customWidth="1" style="4" min="1" max="1"/>
+    <col width="33.1640625" customWidth="1" style="4" min="2" max="2"/>
+    <col width="23.5" customWidth="1" style="4" min="3" max="3"/>
+    <col width="22.1640625" customWidth="1" style="4" min="4" max="4"/>
+    <col width="17.1640625" customWidth="1" style="4" min="5" max="5"/>
+    <col width="18.5" customWidth="1" style="4" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+    <row r="1">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>About the person</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="n"/>
+      <c r="C1" s="8" t="n"/>
+      <c r="D1" s="5" t="inlineStr">
+        <is>
+          <t>About the session/topic</t>
+        </is>
+      </c>
+      <c r="E1" s="7" t="n"/>
+      <c r="F1" s="8" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="inlineStr">
+        <is>
+          <t>Name (incl. titles if any mentioned)</t>
+        </is>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>Affiliation(s) Name(s)</t>
+        </is>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>Person's Location</t>
+        </is>
+      </c>
+      <c r="D2" s="5" t="inlineStr">
+        <is>
+          <t>Session Name</t>
+        </is>
+      </c>
+      <c r="E2" s="5" t="inlineStr">
+        <is>
+          <t>Topic Title</t>
+        </is>
+      </c>
+      <c r="F2" s="5" t="inlineStr">
+        <is>
+          <t>Presentation Abstract</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="16" customHeight="1" s="4">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Florence Abdallah</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Centre de Biophysique Moléculaire, CNRS UPR4301 </t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Orléans, France </t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>P098</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>IL­22 INDUCES KERATINOCYTES HYPERPROLIFERATION IN PSORIASIS VIA MIR­21 AND MIR­31 UPREGULATION</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>Psoriasis is a chronic inflammatory skin disease that affects people of all ages with an estimated 3% prevalence worldwide. It manifests as thick red irritated skin lesions due to imbalanced keratinocytes hyperproliferation and differentiation caused mainly by increased activation of IL-22 pathway in keratinocytes. Emer- ging studies showed a specific psoriatic miRs signature where miR-21 and miR-31 are one of the most upregulated miRs. The latters act by favoring cellular proliferation and inflammation. Hence, re-conciliating the microRNAs and the immunopathogenic occasions responsible for psoriasis development can be a new approach for developing effective mechanism and target-based agents to treat psoriasis.
+The common hyper-proliferation effect of IL-22, miR-21 and miR-31 prompted us to look after a potential interaction between these actors. The expression levels of those 2 microRNAs and that of their targets were evaluated both in vitro and in vivo studies in presence or absence of IL-22.
+We first exploited different skin models to investigate a potential connection between IL-22 and miR-21 or miR-31. The qPCR analysis showed a significant increase in the relative expression (RE) of both miRs in the different models upon IL-22 stimula- tion during 24h compared to untreated cells. These observations indicate the implication of miR-21 and miR-31 in proliferation- differentiation processes in the different layers of the epidermis. We also examined the miR-21 target RE PTEN involved in cell growth and apoptosis control and the miR-31 target RE ppp6c involved in G1 to S phase transition restriction. In line with the upregulation of miR-21 and miR-31, IL-22 stimulation resulted in significant downregulation of both targets at the genomic and proteomic levels.
+We next investigated the in vivo correlation between IL-22 and miR-21 or miR-31 respectively in the development of psoriatic lesion. We used the imiquimod-induced psoriasiform skin inflam- mation in Wild type and IL-22 deficient mice (known to be almost protected from IMQ). Mice displaying a less severe disease form had less miR-21 expression. By contrast, WT mice treated with IMQ exhibited significantly higher miR-21 RE than IL-22-/- mice. Furthermore, miR-31 expression in IL-22-/- mice was identical to miR-31 expression in WT control mice. These results suggest a direct correlation between IL-22 pathway and miR-31 epidermal expression. In line with these observations, the miR targets (PTEN and ppp6c) were contrariwise proportional to miRs expression confirming by that the specificity of the IL-22/miR-21 and IL-22/ miR-31 correlation.
+These findings identify IL-22 as a key regulator of miRs implica- ted in multiple signaling pathways that coordinate keratinocytes proliferation activity</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" s="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nermina Ovčina-Kurtović </t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dermatovenerology Department Clinical center University of Sarajevo </t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bosnia and Herzegovina </t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>P099</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>SERUM CONCENTRACION OF IFN­GAMMA IN PATIENTS WITH PSORIASIS: CORRELATION WITH CLINICAL TYPE AND SEVERITY OF DISEASE</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: Psoriasis is a multifactorial chronic inflammatory disease. The etiopathogenesis of the disease is still unclear but there is evidence that many of cytokines released by keratinocytes and inflammatory leukocytes may contribute to the induction or persistence of the inflammatory process in psoriasis.
+Objectives: The aim of the study was to evaluate serum concen- trations of INF-gamma in patients with psoriasis and the healthy subjects and also to assess a possible association between IFN- gamma, clinical type and severity of disease.
+Methods: The study included a total of 60 patients with psoriasis, both genders and all of ages. There were 20 healthy subjects in the control group. According to the clinical type of disease, patients with psoriasis were divided into four groups: psoriasis vulgaris, psoriasis pustulosa, psoriasis erythrodermica and psoriasis arth- ropatica. Blood samples were collected from all psoriasis patients and from healthy control subjects. Serum IFN-gamma levels were measured by an enzyme-linked immunosorbent assay (ELISA) technique. The severity of psoriasis vulgaris was assessed by Psoriasis Area and Severity Index (PASI) score.
+Results: Of the total number of patients suffering from psoriasis 42 (70%) had psoriasis vulgaris. The second most frequent was psoriasis erythrodermica 9 (15%), while 6 (10%) patients had psoriasis pustulosa and 3 (5%) psoriasis arthropatica. The serum concentartion of IFN-gamma in patients with psoriasis was sig- nificialy higher than that in the control group (1.91+1.79 pg/ml vs 0.91+0.38 pg/ml, respectively). Significantly elevated serum IFN-gamma concentrations were noticed in patients with psoriasis vulgaris (2.15+0.30 pg/ml), compared with patients suffering from psoriasis erythrodermica (1.57+0.68 pg/ml), psoriasis arthropa- tica (1.33+0.53 pg/ml), and in particular patients suffering from psoriasis pustulosa (1.08+0.21 pg/ml) who had the lowest mean serum concentration of IFN-gamma. There was no statistically significant difference between the mean values of IFN-gamma compared to the clinical type of psoriasis (p &gt; 0.05). In the group of patients with psoriasis vulgaris 36 (85.71%) patients had mild form of disease with PASI &lt;50, and 6 (14.29%) patients had severe disease with PASI &gt; 50. It was not found statistically significant correlation between IFN-gamma and PASI score.
+Conclusions: The results of this study showed that psoriasis is associated with significant changes in serum concentracion of IFN- gamma. There was no statistically significant correlation between serum IFN-gamma concentracions, clinical type of psoriasis, and also severity of psoriasis vulgaris evaluated by PASI score. References:
+Baliwag J, Barnes DH, Johnston A. Cytokines in psoriasis. Cytokine 2015; 73 (2):342-350.
+Takahashi H, Tsuji H, Hashimoto Y, Ishida-Yamamoto A, Iizuka H Serum cytokines and growth factor levels in Japanese patients with psoriasis, Clin Exp Dermatol 2010; 35:645-649.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Emina Kasumagić-Halilović </t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dermatovenerology Department Clinical center University of Sarajevo </t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bosnia and Herzegovina </t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>P099</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>SERUM CONCENTRACION OF IFN­GAMMA IN PATIENTS WITH PSORIASIS: CORRELATION WITH CLINICAL TYPE AND SEVERITY OF DISEASE</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: Psoriasis is a multifactorial chronic inflammatory disease. The etiopathogenesis of the disease is still unclear but there is evidence that many of cytokines released by keratinocytes and inflammatory leukocytes may contribute to the induction or persistence of the inflammatory process in psoriasis.
+Objectives: The aim of the study was to evaluate serum concen- trations of INF-gamma in patients with psoriasis and the healthy subjects and also to assess a possible association between IFN- gamma, clinical type and severity of disease.
+Methods: The study included a total of 60 patients with psoriasis, both genders and all of ages. There were 20 healthy subjects in the control group. According to the clinical type of disease, patients with psoriasis were divided into four groups: psoriasis vulgaris, psoriasis pustulosa, psoriasis erythrodermica and psoriasis arth- ropatica. Blood samples were collected from all psoriasis patients and from healthy control subjects. Serum IFN-gamma levels were measured by an enzyme-linked immunosorbent assay (ELISA) technique. The severity of psoriasis vulgaris was assessed by Psoriasis Area and Severity Index (PASI) score.
+Results: Of the total number of patients suffering from psoriasis 42 (70%) had psoriasis vulgaris. The second most frequent was psoriasis erythrodermica 9 (15%), while 6 (10%) patients had psoriasis pustulosa and 3 (5%) psoriasis arthropatica. The serum concentartion of IFN-gamma in patients with psoriasis was sig- nificialy higher than that in the control group (1.91+1.79 pg/ml vs 0.91+0.38 pg/ml, respectively). Significantly elevated serum IFN-gamma concentrations were noticed in patients with psoriasis vulgaris (2.15+0.30 pg/ml), compared with patients suffering from psoriasis erythrodermica (1.57+0.68 pg/ml), psoriasis arthropa- tica (1.33+0.53 pg/ml), and in particular patients suffering from psoriasis pustulosa (1.08+0.21 pg/ml) who had the lowest mean serum concentration of IFN-gamma. There was no statistically significant difference between the mean values of IFN-gamma compared to the clinical type of psoriasis (p &gt; 0.05). In the group of patients with psoriasis vulgaris 36 (85.71%) patients had mild form of disease with PASI &lt;50, and 6 (14.29%) patients had severe disease with PASI &gt; 50. It was not found statistically significant correlation between IFN-gamma and PASI score.
+Conclusions: The results of this study showed that psoriasis is associated with significant changes in serum concentracion of IFN- gamma. There was no statistically significant correlation between serum IFN-gamma concentracions, clinical type of psoriasis, and also severity of psoriasis vulgaris evaluated by PASI score. References:
+Baliwag J, Barnes DH, Johnston A. Cytokines in psoriasis. Cytokine 2015; 73 (2):342-350.
+Takahashi H, Tsuji H, Hashimoto Y, Ishida-Yamamoto A, Iizuka H Serum cytokines and growth factor levels in Japanese patients with psoriasis, Clin Exp Dermatol 2010; 35:645-649.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jasmina Muhović </t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dermatovenerology Department Clinical center University of Sarajevo </t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bosnia and Herzegovina </t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>P099</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>SERUM CONCENTRACION OF IFN­GAMMA IN PATIENTS WITH PSORIASIS: CORRELATION WITH CLINICAL TYPE AND SEVERITY OF DISEASE</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: Psoriasis is a multifactorial chronic inflammatory disease. The etiopathogenesis of the disease is still unclear but there is evidence that many of cytokines released by keratinocytes and inflammatory leukocytes may contribute to the induction or persistence of the inflammatory process in psoriasis.
+Objectives: The aim of the study was to evaluate serum concen- trations of INF-gamma in patients with psoriasis and the healthy subjects and also to assess a possible association between IFN- gamma, clinical type and severity of disease.
+Methods: The study included a total of 60 patients with psoriasis, both genders and all of ages. There were 20 healthy subjects in the control group. According to the clinical type of disease, patients with psoriasis were divided into four groups: psoriasis vulgaris, psoriasis pustulosa, psoriasis erythrodermica and psoriasis arth- ropatica. Blood samples were collected from all psoriasis patients and from healthy control subjects. Serum IFN-gamma levels were measured by an enzyme-linked immunosorbent assay (ELISA) technique. The severity of psoriasis vulgaris was assessed by Psoriasis Area and Severity Index (PASI) score.
+Results: Of the total number of patients suffering from psoriasis 42 (70%) had psoriasis vulgaris. The second most frequent was psoriasis erythrodermica 9 (15%), while 6 (10%) patients had psoriasis pustulosa and 3 (5%) psoriasis arthropatica. The serum concentartion of IFN-gamma in patients with psoriasis was sig- nificialy higher than that in the control group (1.91+1.79 pg/ml vs 0.91+0.38 pg/ml, respectively). Significantly elevated serum IFN-gamma concentrations were noticed in patients with psoriasis vulgaris (2.15+0.30 pg/ml), compared with patients suffering from psoriasis erythrodermica (1.57+0.68 pg/ml), psoriasis arthropa- tica (1.33+0.53 pg/ml), and in particular patients suffering from psoriasis pustulosa (1.08+0.21 pg/ml) who had the lowest mean serum concentration of IFN-gamma. There was no statistically significant difference between the mean values of IFN-gamma compared to the clinical type of psoriasis (p &gt; 0.05). In the group of patients with psoriasis vulgaris 36 (85.71%) patients had mild form of disease with PASI &lt;50, and 6 (14.29%) patients had severe disease with PASI &gt; 50. It was not found statistically significant correlation between IFN-gamma and PASI score.
+Conclusions: The results of this study showed that psoriasis is associated with significant changes in serum concentracion of IFN- gamma. There was no statistically significant correlation between serum IFN-gamma concentracions, clinical type of psoriasis, and also severity of psoriasis vulgaris evaluated by PASI score. References:
+Baliwag J, Barnes DH, Johnston A. Cytokines in psoriasis. Cytokine 2015; 73 (2):342-350.
+Takahashi H, Tsuji H, Hashimoto Y, Ishida-Yamamoto A, Iizuka H Serum cytokines and growth factor levels in Japanese patients with psoriasis, Clin Exp Dermatol 2010; 35:645-649.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Zhu Shen</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Institute of Dermatology and Venereology, Sichuan Academy of Medical Sciences &amp; Sichuan Provincial People’s Hospital</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>P100</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>IMMUNOLOGICAL MEMORY EXISTS IN THE RECURRENT LESION AND NONRECURRENT SKIN AFTER REMISSION IN PSORIATIC PATIENTS</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Introduction: Psoriasis usually recurs in previously affected areas, so a pathogenic memory has been proposed, but the nature of such site-specific�recurrent�memory�is�not�completely�known.�Tissue-resident memory T (TRM) cells are non-recirculating memory T cells that persist long-term in epithelial tissues, including the skin. Because they can localize in the skin for many months, we spe-culate that TRM may contribute to recurrent pathology of psoriasis.Objectives: The aim of the present study is to compare the dif-ferences of quantity proportion and secretion ability of cytokines of the TRM cells between recurrent and nonrecurrent lesions following remission, as well as to explicit the possible survival signal for these TRM cells in psoriatic lesion.Methods: RNA-Seq, Gene Ontology and KEGG analysis, real-time PCR,�flow�cytometer�analysis/sorting,�cell�stimulation�assay,�and�western blot were used to explore the immunological memory.Results: Compared with normal skin, there are common shared genes�significantly�upregulated�( &gt; 2 folds, p &lt; 0.001) by recurrent and nonrecurrent lesions, including CD69. CD69 mRNA transcrip-tion level in nonrecurrent lesions after remission remains as high as in neighboring recurrent lesions. CD8+CD69+ TRM cells exist in both lesions, and they can secret almost same amount of IL-17A and IL-22 after stimulation. Levels of IL-15, secreted by kerati-nocytes in psoriasis epidermis, in nonrecurrent lesions remain as high as in neighboring recurrent lesions, and recombinant human IL-15 can induce CD69 on TRM cells.Conclusions: Our preliminary study shows that CD8+CD69+ TRM cells persist in clinically resolved psoriatic lesions whether it recurs or not, and they can produce IL-17A and IL-22 with critical effect on psoriatic recurrence and development. Furthermore, we have indicated the IL-15 may play crucial role in the survival of CD8+CD69+ TRM cells in psoriatic lesions.References:1. Mueller SN, Mackay LK.Tissue-resident memory T cells: local spe-cialists in immune defence. Nat Rev Immunol. 2016 Feb;16(2):79-89.2. Clark RA. Resident memory T cells in human health and disease. Sci Transl Med. 2015 Jan 7;7(269):269rv1.3. Park CO, KupperTS. The emerging role of resident memory T cells in protective immunity and inflammatory disease. Nat Med. 2015 Jul;21(7):688-97.4. Cheuk S, Wikén M, Blomqvist L, Nylén S, Talme T, Ståhle M, Eids-moL. Epidermal Th22 and Tc17 cells form a localized disease memory in clinically healed psoriasis. J Immunol. 2014 Apr 1;192(7):3111-20.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Samar Gupta, Alicja Wasilewski</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>University of Michigan, MI State</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>P101</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>INVESTIGATING SYSTEMIC INFLAMMATION AS THE COMMON LINK BETWEEN DEPRESSION, PSORIASIS, AND PSORIATIC ARTHRITIS IN US VETERANS</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Introduction: Psychosocial factors are important in the onset and/or exacerbation of psoriasis in 40% to 80% of cases. Psoriasis has been associated with suicide, and an increased prevalence of alcoholism and a range of personality characteristics.A recent systematic meta-analysis of 98 eligible studies with a total of 401,703 psoriasis patients showed that patients with psoriasis were approximately one and a half times more likely to exhibit signs of depression compared with healthy controls. [1].Emerging evidence suggests that depression, like psoriasis, is associated�with�systemic�inflammation,�and�the�systemic�inflam-matory�profile�of�the�two�conditions�show�similar�traits.�Depression�is�considered�to�have�a�strong�inflammatory�component,�similar�topsoriasis, e.g. interleukin (IL)-2, IL-6, IL-12, and tumour necrosisfactor�(TNF)-α�[2–5].US Veteran population has increased incidence of mental healthissue as compared to general population. making Veteran groupa unique population that warrants investigation.Objectives: Hypotheses - 1/ Veterans with concomitant depres-sion�and�psoriasis/PsA�may�have�elevated�inflammatory�markerslike CRP, ESR, and SPEP. 2/ Depression may improve with thetreatment of psoriasis/psoriatic arthritis without antidepressant use.Methods: A 36-month retrospective chart review of 100 veteranswith diagnosis of depression and psoriasis/psoriatic arthritis.Elevated�inflammatory�markers,�including�sedimentation�rate,C-reactive protein (CRP) and serum protein electrophoresis(SPEP), as well as longitudinal disease course of depression(PHQ-8)�and�psoriasis/psoriatic�arthritis�(HAQ-DI);�specificallydisease activity, and depression symptoms will be assessed. Wethen aim to draw a correlation between disease activity and activedepressive symptoms.Results: to be availableConclusions: to be availableReferences:1. Dowlatshahi EA, et al. The prevalence and odds of depressive symptomsand clinical depression in psoriasis patients: a systematic review and meta-analysis. J Invest Dermatol 2014; 134: 1542–1551.2.�Allison�DJ,�Ditor�DS.�The�common�inflammatory�etiology�of�depres-sion�and�cognitive�impairment:�a�therapeutic�target.�J�Neuroinflammation2014; 11: 151.3.�Dantzer�R,�et�al.�From�inflammation�to�sickness�and�depression:�whenthe immune system subjugates the brain. Nat Rev Neurosci 2008; 9: 46–56.4.�Han�Q-Q,�Yu�J.�Inflammation:�a�mechanism�of�depression?�NeurosciBull 2014; 30: 515–523.5. Dowlati Y, et al. A meta-analysis of cytokines in major depression. BiolPsychiatry [Internet] 2010; 67: 446–457.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Touraj Khosravi-Hafshejani, Mehran Ghoreishi, Cristian VeraKellet, Magdalena Martinka, Jan Dutz</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Department of Undergraduate Medical Program, Faculty of Medicine,Department of Dermatology, and Skin Science and Department of Pat-hology and Laboratory Medicine, University of British Columbia, Depart-ment of Dermatology, Pontifical Catholic University of Chile</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>P102</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>THE IMMUNE­PHENOTYPE OF SMALL PLAQUE PSORIASIS</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Introduction: Small plaque psoriasis (SPP) is a subtype of pso-riasis�first�described�by�Griffiths�et�al�(2007).�It�resembles�guttatepsoriasis but lesions are larger, are chronic, and are not associatedwith streptococcal infection. We have observed SPP develop infour�different�population�groups;�patients�under�TNFα-inhibitortherapy, patients under immune checkpoint inhibitor (ICI) th-erapy, and patients with concurrent SLE or ANA positivity andpsoriasis. Subtypes of psoriasis develop on a spectrum betweenautoimmune�and�auto-inflammatory�responses�and�an�interplaybetween three signalling pathways are involved in their distinctpathogenesis. Chronic plaque psoriasis lesions are on the autoim-mune�spectrum,�dominated�by�a�T-cell�mediated�TNFα/IL-23/IL-17/IL-22�axis.�Pustular�psoriasis�is�a�neutrophilic�infiltrativeinflammatory�skin�disease�resulting�from�dysregulation�of�theIL-36/IL-1�axis.�Lastly,�TNFα-inhibitor�(TNFi)�induced�lesionshave a SPP morphology and demonstrate increased expressionof LL37 by keratinocytes, activated plasmacytoid dendritic cellsand upregulated type-1 interferons (IFN). These lesions expressfewer epidermal CD8 T cells.Objectives: Our aim is to characterize the immune-phenotypeof SPP in multiple clinical scenarios. We hypothesize that SPPdevelops as a result of increased expression of cytokines andantimicrobial peptides involved in the type-1 IFN pathway.Methods: Skin biopsies were obtained from three patients withTNFi-induced psoriasis, three patients with SLE and psoriasis, three patients with positive ANA and psoriasis, two patients with ICI-induced psoriasis and two patients with chronic plaque psoria-sis as control. Immunohistochemistry was performed using anti-bodies against type-1 IFN induced MXA, LL37, IL-36 and CD8 T cells. The intensity and the area of positively stained samples were each�graded�from�0–4�and�then�multiplied�to�provide�a�final�score.�Results: Small plaque lesions in various clinical scenarios had his-tologic changes consistent with psoriasis.. Immunohistochemical evaluation revealed an increased expression of MXA (TNFi = 14, SLE = 13.3, ANA = 11.3, ICI = 16 vs. control = 6, t-test p &lt; 0.05), LL37 (TNFi = 10.8, SLE = 6, ANA = 9.7, ICI = 12 vs. control = 2, t-test p &lt; 0.05) and IL-36 (TNFi = 10.5, SLE = 13.3, ANA = 11, ICI = 7, control = 0.25, t-test p &lt; 0.05) in the keratinocytes of SPP patients. There was decreased CD8 T cell migration to the epidermis in SPP compared to control.Conclusion: This is the first study to describe the immune-phenotype of SPP and to extend the phenotype observed in TNFi induced psoriasis to varying clinical scenarios. There was an increased expression of MXA, LL-37 and IL-36 as well as fewer epidermal CD8 T cells than in chronic plaque psoriasis consis-tent with the type-1 IFN pathway of psoriasis pathogenesis. This immune-phenotypic analysis may suggest tailored therapy for this form of psoriasis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Goksal Keskin, Ali Inal, Esra Dilek Keskin, Umit Olmez</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Department of Immunology, Medical School of Ankara University, De-partment of Immunology, Medical School of Baskent University, Depart-ment of FTR, Medical School of Kırıkkale University</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>P104</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>SERUM GLUCOCORTICOID­INDUCIBLE KINASE­1(SGK1) LEVELS IN PATIENTS WITH PSORIATIC ARTHRITIS</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Introduction: Psoriatic�arthritis�(PsA)�is�an�inflammatory�rheuma-tic disorder that occurs in patients with psoriasis. The etiology of PsA is not well understood but evidence supports an interplay of genetic, immunologic, and environmental factors which promote pathological bone remodeling and joint damage in PsA. The glucocorticoid-inducible kinase-1(SGK1) is genomically upre-gulated by cell stress. However, excessive SGK1 expression and activity participates in the pathophysiology of several disorders, such�as�inflammation,�autoimmune�disease,�fibrosis,�hypertension,�thrombosis and tumor growth. Objectives: In this study, we analyzed the possible role of serum SGK-1 levels in the pathogenesis of psoriatic arthritis.Methods: 56 patients with psoriasis (40 patients with psoriatic arthritis; 16 female, 24 male, mean age; 46.7 ± 6.5 years, mean disease duration 17.7 ± 4.3 years and 16 patients without arthritis; 8 female, 8 male, mean age; 43.2 ± 1.9 years, mean disease duration; 14.1 ± 3.9 years) and 19 healthy controls (11 female, 8 male; mean age 41.3 ± 4.7 years) were enrolled in this study. Oligoarthritis was the commonest clinical presentation (76.4 %). Dactylitis (73.4%) and enthesitis (48.1%) were frequent extra-articular features. All patients were negative for rheumatoid factor. HLA-B27 was negative in 14 patients. Serum SGK-1 levels were determined by ELISA.Results: The mean serum SGK-1 levels were 58.4 ± 18.1 pg/ml in healthy controls, 163.7 ± 27.8 pg/ml in patients without arthritis and 443.9 ± 32.1 pg/ml in patients with arthritis. Serum SGK-1 levels�were�significantly�high�in�patients�with�psoriasis�compared�with healthy controls (p &lt; 0.001). Serum SGK-1 levels were sig-nificantly�high�in�patients�with�psoriatic�arthritis�compared�with�in patients without psoriatic arthritis (p &lt; 0.001).Conclusions: The evidence is strong that immunological mecha-nisms are involved in the pathogenesis of psoriasis. In this study, we�demonstrated�that�serum�SGK-1�levels�were�significantly�elevated in patients with psoriasis and psoriatic arthritis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Akiko Arakawa, Emma Reeves, Sigrid Vollmer, Yukiyasu Ara-kawa, Edd James, Jörg Prinz</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ludwig-Maximilian-University, Southampton General Hospital </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>P105</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DIFFERENTIAL NH2­TERMINAL AUTOANTIGEN TRIMMING MAY EXPLAIN EPISTASIS BETWEEN HLA­C*06:02 AND ERAP1 VARIANTS IN PSORIASIS RISK </t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Introduction: NH2-terminal trimming by endoplasmic reticulumaminopeptidase 1 (ERAP1) generates the appropriate length ofantigenic peptides for binding to and presentation by HLA-classI molecules. Genetic interaction between ERAP1 variants andHLA-class I alleles determines the genetic risk for various HLA-class�I-associated�inflammatory�diseases.�Epistasis�between�HLA-C*06:02 and ERAP1 variants affects also psoriasis risk but themechanisms of these gene interactions remained unknown. Usinga�pathogenic�Vα3S1/Vβ13S1-TCR�from�a�psoriatic�CD8+�T-cellclone we had shown that in psoriasis, HLA-C*06:02 mediates anautoimmune response against melanocytes through autoantigenpresentation�and�we�had�identified�a�peptide�from�ADAMTS-likeprotein 5 (ADAMTSL5) as HLA-C*06:02-presented melanocyteautoantigen.Objectives: To determine the role of ERAP1 variants in psoriasispathogenesis. Methods: We established ERAP1 knockout cells using CRISPR/Cas9 system. ERAP1 knockout cells transfected with plasmidscoding for HLA-C*06:02, ERAP1 variants, and antigenic pep-tides were co-cultured with the TCR hybridoma to determinethe�levels�of�TCR�ligation�which�reflect�the�generation�of�theantigenic�ADAMTSL5�peptide�and�other�Vα3S1/Vβ13S1-TCRligands from precursors.Results: Our data show that NH2-terminal trimming by ERPA1is required to generate the actual antigenic ADAMTSL5 peptidefrom NH2-terminally elongated precursors. An ERAP1 variantprotecting from psoriasis reduced the immunogenicity of theantigenic ADAMTSL5 peptide presumably through overtrimmingand peptide destruction, whereas a psoriasis risk variant of ERAP1highly kept the antigenicity of the autoantigen. This effect wasspecific�for�ADAMTSL5.�Precursors�of�other�Vα3S1/Vβ13S1-TCR self-ligands were not substrates of ERAP1. Conclusions: Using a proven psoriatic autoantigen and a cognatepsoriatic TCR, these experiments provide direct evidence thatgene-gene interaction between ERAP1 and HLA-C*06:02 affectsthe risk for psoriasis through differential autoantigen trimmingfrom precursors. These data furthermore propose a model whereERAP1 function essentially controls the autoantigenic potentialof self-peptides in HLA-class I associated CD8+ T-cell mediatedautoimmune diseases.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Secil Vural, Yukiyasu Arakawa, Adrian Galinski, Sigrid Vollmer,Akiko Arakawa, Jörg Prinz</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Ludwig Maximilian University</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>P106</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ENVIRONMENTAL TRIGGERS OF AN HLA­C*06:02­RESTRICTED AUTOIMMUNE RESPONSE IN PSORIASIS</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Introduction: Psoriasis vulgaris is a multifactorial disease. Whilethe major psoriasis risk gene HLA-C*06:02 accounts for up to50% of disease onset, environmental factors are considered tocontribute to approximately 30% of disease risk. Psoriatic skininflammation�is�driven�by�an�HLA-C*06:02-mediated�autoimmuneresponse�against�melanocytes.�A�pathogenic�Vα3S1/Vβ13S1�T-cellreceptor (TCR), which we had reconstituted from a lesional epi-dermal CD8+ T-cell clone of an HLA-C*06:02–positive psoriasispatient�in�a�mouse�reporter�hybridoma�cell�line,�specifically�reactsagainst melanocytes through HLA-C*06:02 restricted recognitionof a psoriatic melanocyte autoantigen, ADAMTS-like protein 5(ADAMTSL5). However, it is unknown whether and how environ-mental factors may contribute to autoimmunity in psoriasis. TCRs are�known�to�be�polyspecific,�recognizing�multiple�peptide�ligands�which�share�a�conserved�amino�acid�pattern�specific�for�each�TCR.Objectives: To examine the potential role of environmental factors in the psoriatic autoimmune response.Methods:�We�first�determined�the�particular�amino�acid�motif�which�is�recognized�by�the�psoriatic�Vα3S1/Vβ13S1�TCR�in�the context of HLA-C*06:02. By homology searches using this conserved amino acid pattern, we selected 57 peptides from food, bacterial, fungal and viral pathogens and from the skin and intestinal microbiomes as candidate environmental antigens that may trigger the psoriatic autoimmune response. We cloned the peptides into expression plasmids, co-transfected them with HLA-C*06:02�into�Cos7�cells�and�used�them�to�stimulate�the�Vα3S1/Vβ13S1�TCR.�TCR�ligation�was�determined�by�GFP�induction�of TCR hybridoma in FACS analysis. We then stimulated blood lymphocytes with the candidate peptides that had ligated the Vα3S1/Vβ13S1�TCR.�Lymphocyte�activation�was�assessed�by�induction of activation markers and proliferation assays using thymidine incorporation.Results: We�identified�a�variety�of�peptides�contained�in�proteins�from food (wheat, coffee, apple, and spinach), microbiota of hu-man skin or gut, and infectious pathogens including Chlamydia trachomatis,�which�ligated�the�psoriatic�TCR�in�a�polyspecific�manner. Stimulation of blood lymphocytes with particular candi-date�antigens�resulted�in�significant�activation�in�psoriasis�patients,�as compared to healthy individuals. Interindividual-correlation analyses demonstrated cross-reactive immune responses between environmental antigens and the melanocyte autoantigen presen-ted by HLA-C*06:02 in psoriasis patients. Among the candidate antigens, wheat peptides induced most robust lymphocyte activa-tions�in�psoriasis�patients.�Moreover,�psoriasis�was�significantly�improved by wheat-free diet in several patients with lymphocytes responding to wheat, indicating potential pathogenic contribution of wheat antigens in psoriasis.Conclusions: Our results provide unbiased evidence that several environmental antigens may trigger the melanocyte-specific autoimmune response in psoriasis. By identifying and avoiding those triggers at the molecular level which translate the genetic predisposition into disease manifestation, we may develop stra-tegies to prevent disease onset and exacerbation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Irène Gallais Sérézal, Elena Hoffer, Borislav Ignatov, Elisa Martini, Beatrice Zitti, Marcus Ehrström, Liv Eidsmo</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Department of Medicine Solna, Karolinska Institutet, Centre for Haema-tology and Regenerative Medicine, Department of Medicine, Karolinska Institutet, Karolinska University Hospital Huddinge, Department of Re-constructive Plastic Surgery, Karolinska University Hospital Solna, Stock-holm, Sweden</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>P107</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>A SKEWED POOL OF RESIDENT T CELLS TRIGGERS DISEASE­ASSOCIATED TISSUE RESPONSES IN NEVER­ LESIONAL PSORIASIS</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Background: Psoriasis lesions evolve as a result of cytokine driven interactions between intralesional immune cells and keratinocytes in genetically predisposed individuals. Skin resident T cells are implicated in maintenance and recurrence of psoriasis plaques but their composition and function in never-lesional psoriasis skin is less known. Objective:Characterisation of T cell driven tissue responses and subsets of resident T cells in never-lesional psoriasis. Methods: T cell driven tissue responses were assessed in explanted skin biopsies using Nanostring and Multiplex analysis. Epidermal and�dermal�T�cells�were�characterised�using�flow�cytometry�in�never-lesional skin from patients with mild disease.Results: T cell activation induced epidermal psoriasiform- and type-1 interferon tissue responses in explants from never-lesi-onal skin. Skin resident T cells were skewed with enrichmentof epidermal IL-17 and IL-22 producing CD4+CCR6+ andCD8+CD103+CD49a-�T�cells�and�IFN-γ�producing�CD4�T�cellsin never-lesional skin compared to healthy skin. Keratinocytesfrom�never-lesional�psoriasis�responded�to�IFN-γ�activation�withIFN-α�secretion�and�MX1�upregulation�and�skin�explants�exposedto common fungal antigens produced the CCR6-attractant CCL20.Conclusion: Resident T cells poised to induce psoriasiform tissueresponses�accumulate�in�never-lesional�skin�of�psoriasis-afflictedindividuals. Additionally our data suggest that microbial interplaywith genetically predisposed keratinocytes may shape the localpool of resident T cells.References:Verma, D., Ekman, A.-K., Bivik Eding, C. &amp; Enerbäck, C. Genome-WideDNA�Methylation�Profiling�Identifies�Differential�Methylation�in�Unin-volved Psoriatic Epidermis. J. Invest. Dermatol. (2017). doi:10.1016/j.jid.2017.11.036Gudjonsson, J. E. et al. Global gene expression analysis reveals evidencefor decreased lipid biosynthesis and increased innate immunity in uninvol-ved psoriatic skin. J. Invest. Dermatol. 129, 2795–2804 (2009).Cheuk, S. et al. Epidermal Th22 and Tc17 Cells Form a Localized DiseaseMemory in Clinically Healed Psoriasis. J. Immunol. 192, 3111–3120(2014).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Omid Zargari, Ehsan Kazemnejad, Seyyede Zeinab Azimi</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Department of Dermatology, Skin Research Center, Shahid Beheshti Uni-versity of Medical Sciences, Tehran, Department of Biostatistics, Depart-ment of Dermatology, Guilan University of Medical Sciences, Rasht, Iran</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>P108</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>NAIL INVOLVEMENT IN PSORIASIS; IS IT A PREDICTOR OF PSORIATIC ARTHRITIS?</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Introduction: Psoriatic Arthritis (PsA) arises in an increased burdenof psoriasis and impairments in both quality of life and functionalcapacity. The relationship between nail involvement and PsA inpsoriasis is not fully characterized. Objective:To evaluate the frequency and characteristics of nailinvolvement in psoriatic patients and to assess the relationshipwith joint involvement.Methods: A total of 197 patients with moderate-to-severe psoriasis,were consecutively selected to participate in this cross-sectionalstudy. The patients divided into two groups; with and withoutpsoriatic arthritis. Results: 69.5% of psoriatic (137 out of 197) patients had nail in-volvement. The most common nail abnormality was onycholysis,followed by pitting and oil drop. Nail changes were more commonin patients with psoriatic arthritis (82.1% vs. 57.8%).Limitations: Our study had certain limitations. One of them waslack of information about the subtypes of PsA. Also, we have notrecorded the severity of nail involvements. Furthermore, previousmedications may have interfered with the degree of nail changesin our patients.Conclusion: Nail involvement is associated with PsA. Onycho-lysis,�splinter�hemorrhage,�and�oil�drop�were�significantly�morecommon in PsA group. In general, psoriatic patients with arthritishad the more severe disease. References:1. Klaassen KM, van de Kerkhof PC, Pasch MC. Nail psoriasis: a ques-tionnaire-based survey. Br J Dermatol. 2013;169(2):314–319.2. Langenbruch A, Radtke MA, Krensel M, Jacobi A, Reich K, AugustinM. Nail involvement as a predictor of concomitant psoriatic arthritis inpatients with psoriasis. Br J Dermatol. 2014;171(5):1123–1128.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Kim Papp, Remus Ioan Orasan, Paula Polzer, Carsten Henne-ge, Radu Dumitru Nica, Stefan Wilhelm, Ulrich Mrowietz</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Probity Medical Research, Waterloo, Ontario, Canada, Human Physio-logy, Iuliu Hatieganu University of Medicine and Pharmacy, Romania, Eli Lilly and Company, Indianapolis, Indiana, USA, Department of Derma-tology, University Medical Centre Schleswig-Holstein, Campus Kiel, Ger-many</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>P109</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ABSOLUTE AND RELATIVE PASI IMPROVEMENTSWITH IXEKIZUMAB TREATMENT: RESULTS AT WEEK12 FROM IXORA­P</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Introduction and Objectives: Ixekizumab (IXE), an interleukin-17A�antagonist,�has�shown�superior�efficacy�in�psoriasis�compa-red to placebo,1 etanercept,1 and ustekinumab.2 This post hoc analysis intended to evaluate absolute and relative Psoriasis Area and Severity Index (PASI) improvements with IXE treatment in a phase 3 trial (IXORAP).Methods: In IXORA-P, patients with moderate-to-severe psoriasis were randomized (2:1:1) to receive any of the 3 dosing regimens of IXE 80 mg: every 2 weeks (Q2W; n = 611), every 4 weeks (Q4W; n = 310), or Q4W/Q2W step-up (n = 306), for 52 weeks. Randomization�was�stratified�by�country�and�weight�( &lt; 80�kg,�≥80�to  &lt; 100�kg,�or�≥100�kg).�The�percentage�of�patients�achieving�a�75%, 90% or 100% improvement from baseline in PASI (PASI 75, 90, and 100) was evaluated using logistic regression with dosing regimen, country, and baseline weight as factors. Fisher’s exact test with nonresponder imputation was used to compare the response rates between treatment groups. Here, we present results at 12 weeks for Q2W (label dose) and Q4W groups; results from Q4W/Q2W group will be discussed separately.Results: Mean (standard deviation) PASI score at baseline was 20.3�(8.25).�Response�rates�were�significantly�higher�(p &lt; 0.001) for Q2W group compared to Q4W group across all cut-off points for absolute PASI: absolute PASI ≤ 1, 2, 3, and 5 response rates at Week 12 were 61.4%, 76.1%, 84.5%, and 89.4%, respectively, for Q2W group, and 49.7%, 64.5%, 72.6%, and 83.9%, respectively, for Q4W group. At Week 12, PASI 75 response rates in Q2W and Q4W groups were 89.2% and 83.2%, respectively (p = 0.012). For Q2W and Q4W groups, PASI 90 response rates were 75.3% and 63.2%, respectively (p &lt; 0.001), and PASI 100 response rates were 46.0% and 32.6%, respectively (p &lt; 0.001).Conclusion: As reported in psoriasis registration trials, induction with IXE Q2W, the labeled dosing regimen, provides better clinical outcomes at Week 12.References:[1]�Griffiths�CE,�Reich�K,�Lebwohl�M,�et�al.�Lancet�2015;386:541-51.[2] Reich K, Pinter A, Lacour JP, et al. Br J Dermatol 2017;177(4):1014-23. </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Nadezhda Batkaeva, Tatiana Korotaeva, Edgem Batkaev</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Peoples’ Friendship University of Russia (RUDN University), Research Institute of Rheumatology n. a. V. A. Nasonova</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>P110</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PREVALENCE AND SEX DIFFERENCES OF PSORIATIC ARTHRITIS IN PATIENTS WITH SEVERE PLAQUE PSORIASIS. </t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Background: Prevalence of psoriatic arthritis in patients with psoriasis�has�conflicting�data�in�different�population.�But�no�study has been performed in Russian population of prevalence and sex differences of psoriatic arthritis in patients with severe plaque psoriasis.Objectives: to evaluate the prevalence PsA in patients (pts) with PsO in a dermatological hospital cohort.Methods: 890 pts (Male-516/Female-374) with severy plaque PsO, mean age 50.4±17.6 years, mean PsO duration 21.5±14.7, mean PASI 49.4±0.5 were included. 374 female were divided into groups by age. 113 young F. pts with age less than 49 years (mean age 36.1±11.0 years), 261 old F. pts with age more than 50 years (mean age 63.7±9.6 years). 516 male were divided into groups by age. 304 young M. pts with age less than 54 years (mean age 38.5±11.3 years), 212 old M. pts with age more than 55 years (mean age 38.5±11.3 years) were included. PsO and PsA pts were identify in hospital Database reporting and coding by International Statistical�Classification�of�Disease�and�Related�Health�Problems(ICD-10) between 2010 - 2015 years. PSA was diagnosed afterappointment with a rheumatologist and an X-ray examination.Diagnosis was carried out according to the criteria of CASPAR.M±m, t-test, x2, (%) were calculated. All p &lt; 0.05 were consideredto�indicate�statistical�significance.Results: 303 out of 890 pts (34.0%) had psoriatic arthritis (PsA).PsA pts were older then PsO pts without arthritis – 55.3±13.7 yearsand 50.4±17.6 years accordingly (p &lt; 0.001). PsA was found sig-nificantly�often�in�F.�pts�compare�to�M.�pts�–�in�143�out�of�374�pts(38.2%) and in 129 out of 516 pts (25.0%) accordingly (p &lt; 0.05).PsA�was�found�significantly�often�in�F.�pts�over�50�years�old�(y.o.)compare to F. pts under 50 y.o. – in 134 out of 261 pts (51.3%) andin 9 out of 113 pts (7.9%) accordingly (p &lt; 0.05). In old M. andyoung M. PsA was found in the same cases - in 58 out of 212 pts(27.3%) and in 71 out of 304 pts (23.3%) accordingly (p &gt; 0.05).Conclusions: PsA was detected in more than a third of patientswith severe plaque psoriasis. PSA was found predominantly oftenin F. pts over 50 years of age with severe plaque psoriasis. Futureinvestigation�in�this�field�is�needed�to�determine�the�causes�of�highrisks PSA in this age group.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Elena Gubar, Elena Loginova, Svetlana Glukhova, Tatiana Koro-taeva</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Nasonova Research Institute of Rheumatology, Moscow</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>P111</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>SKIN LESION SEVERITY IN EARLY AXIAL AND PERIPHERAL PSORIATIC ARTHRITIS PATIENTS</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Introduction: Comparative analysis of skin lesion severity in earlyPsA patients with and without axial involvement hadn’t been suf-ficiently�studied.Objective:to compare skin lesion severity of two early peripheralPsA patient populations – with and without axial involvement.Methods: 95 patients (pts) (M/F–47 /48) with early PsA accordingto CASPAR criteria were included; all pts had peripheral arthritisfor ≤ 2�years;�no�inflammatory�back�pain�(IBP)�pts�were�speciallyselected. Mean age 36.5±10.7 yrs, disease duration 12.2±10.3mo, disease activity indexes DAS = 4.0±1.4, DAS28 = 4.2± 1.1,BASDAI = 4.5±1.6. Skin lesion severity was evaluated in termsof body surface area (BSA) affected and Psoriasis Area SeverityIndex�(PASI).�When�BSA�was�≥3%,�PASI�was�calculated.�PASI≥11�indicates�moderate�and�severe�psoriasis.All�pts�were�evaluated�for�the�presence�of�inflammatory�back�pain(IBP) by ASAS criteria. IBP was observed in 63 (66.3%) cases.Magnetic resonance imaging (MRI) of SIJs was performed in 79pts, regardless of the presence of IBP, on Signa Ovation 0,35T. MRIresults were evaluated by an independent reader. Bone marrowedema on MRI (STIR) was considered as active MRI sacroiliitis(MRI-SI). MRI-SI was detected in 28 of 79 (35.4%) examinedcases. The examination also included X-ray of sacroiliac joints(SIJs) (pelvic radiographs). Radiographic sacroiliitis (R-SI) wasconsidered�according�to�New�York�criteria�(unilateral�grade≥3�orbilateral�grade≥2).�R-SI�was�found�in�29�(30.5%)�cases.�Pts�weresplit into two groups: those with axial involvement (axPsA), thatis with IBP and/or MRI-SI and/or R-SI; and those without axialinvolvement (having only peripheral PsA [pPsA]). The axPsAgroup included 65 (68.4%) cases, the pPsA one 30 (31.6%) cases.Results: skin lesions’ severity was higher in the axPsA group thanin the pPsA group: in axPsA pts BSA median was 3.0 [1.0 – 9.0]and�in�pPsA�pts�it�was�1.0�[0.2�–�3.0]�(р = 0.007); in the axPsAgroup PASI median was 15.6 [6.6 – 55.2] and in the pPsA groupit�was�6.0�[0.0�–�7.2]�(р = 0.006).Conclusion: Axial involvement in early PsA patients is associatedwith�skin�lesions’�severity.�These�findings�may�have�a�positiveimpact on the selection of the best therapeutic strategy. </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Steven Feldman, Steve Fakharzadeh, Jill Abell, Timothy Hoops, Bhaskar Srivastava, Erik Muser, Danielle Dungee, Sean Quinn, Megan Leone Perkins, Michael Kappelman</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Wake Forest School of Medicine, Winston-Salem, NC, Janssen Scientific Affairs, LLC, Horsham PA, HealthiVibe, LLC, Arlington, VA, University of North Carolina, Chapel Hill, NC, USA</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>P112</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GASTROINTESTINAL SYMPTOMS ARE COMMON IN U.S. PATIENTS WITH MODERATE­SEVERE PSORIASIS </t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Background/Objective:Patients with moderate-to-severe plaque psoriasis�(PsO)�are�at�increased�risk�of�developing�inflammatory�bowel disease (IBD). A survey was conducted to evaluate the prevalence of gastrointestinal symptoms in PsO patients.Methods: An electronic survey was available to U.S. PsO patients with data collected from Jan-Feb. 2017. Patients with moderate-to-severe plaque PsO and healthy controls (HC), with common co-morbidities�allowed�in�both�groups�qualified�for�inclusion�in�the survey. Psoriasis patients were further categorized as those without recent exposure to biologic therapy (PsO-) vs those with recent (within 4 months) biologic exposure (PsO+). GI symptoms and signs, including frequency and severity, were compared across groups. CalproQuest (CPQ) scores, which have recently been pro-posed as a tool to identify patients with elevated fecal calprotectin levels and increased risk for IBD, were also calculated. Patients with�inflammatory�bowel�disease�(IBD),�inflammatory�bowel�syndrome (IBS), or other gastrointestinal (GI) diagnoses with symptoms that overlap with IBD were excluded.Results: Overall, 915 patients with self-reported moderate-severe PsO and 1,411 healthy controls participated. Demographics were generally comparable between groups. GI symptoms and signs were�significantly�more�prevalent�in�the�PsO-�and�PsO+�groups�vs the HC group, respectively: pain- 20.6% and 36.9% vs 10.5%; fullness/bloating- 37.2% and 48.4% vs 25.3%; and diarrhea (16.3% and 29.3% vs 12.2% (all p-values = 0.002 except diarrhea for PsO- vs HC, p = 0.023). Mucous and blood in the stool followed a�similar�pattern.�A�significantly�greater�percentage�of�PsO-�and�PsO+ patients had positive CPQ scores vs HCs, with the greatest percentage of positive CPQ scores in the PsO+ group. Conclusion: GI symptoms and signs are common in patients with moderate-to-severe PsO, more so than in healthy controls. This suggests that physicians caring for patients with PsO may consider assessing for GI symptoms and signs, and monitoring for their progression with treatment of PsO to identify patients potentially at risk for developing IBD. </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Christopher Griffiths, A. Blauvelt, K. Reich, C. Leonardi, N. Mehta, T. Tsai, R. You, P. Papanastasiou, M. Milutinovic, P. van de Kerkhof</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Dermatology Centre, Salford Royal Hospital, University of Manchester, Manchester Academic Health Science Centre, Manchester, UK, Oregon Medical Research Center, Portland, Oregon, USA, Dermatologikum Ber-lin and Georg-August-University, Göttingen, Germany, Saint Louis Uni-versity Health Sciences Center, St. Louis, Missouri, National Heart, Lung, and Blood Institute, Bethesda, Maryland, USA, National Taiwan Univer-sity Hospital, National Taiwan University College of Medicine, Taipei, Tai-wan, China Novartis Institutes for BioMedical Research, Shanghai, China, Novartis Pharma AG, Basel, Switzerland, Department of Dermatology, Radboud University Nijmegen Medical Centre, Nijmegen, The Netherlands</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>P113</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>SECUKINUMAB’S LONG­TERM SAFETY REMAINS FAVORABLE UP TO 5 YEARS OF TREATMENT</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Introduction and Objectives: Psoriasis is a condition typically requiring long-term treatment, thus longitudinal data establishing the safety of approved therapies are required. We report exposure adjusted incidence rates (IRs per 100 patient years) for treatment-emergent adverse events (AEs) per year of treatment from a pooled analysis of all secukinumab psoriasis trials to date (19 studies, 4,674 patients, 10,061 patient-years exposure; secukinumabexposure up to 5 years).Methods: AE IRs were examined per year for subjects receivingsecukinumab, and for 52 weeks only for those receiving etanercept(ETN), ustekinumab (UST), or placebo (PBO).Results: Duration of exposure through 52 weeks of secukinumabtreatment 300 mg, ETN 50 mg, UST 45/90 mg, and PBO was1467.4, 296.9, 318.1, and 301 patient-years, respectively. Expo-sure duration through 2, 3, 4, and 5 years of secukinumab 300 mgtreatment was 859.6, 423, 377.5, and 90 patient-years. Over 52 weeks for secukinumab, ETN, UST, and PBO, respectively,exposure adjusted IRs were overall comparable across treatments:total AEs (275.6, 245.7, 252.2, 355.8); nasopharyngitis (28.4, 35.9,31.2, 35.9); headache (12.6, 15, 14.6, 23.7); upper respiratoryinfections [URI] (9.1, 5.9, 9.9, 8.8); opportunistic infections (0.2,0.3, 0.3, 0.3); Candida infections (4.7, 1.4, 1.6, 1.7); neutropenia(0.5, 1.4, 0, 0); major adverse cardiovascular events [MACE] (0.5,0.3, 0.3, 1.3); Crohn’s disease (0.1, 0, 0, 0); ulcerative colitis (0.1,0.3,�0,�0);�and�malignant�or�unspecified�tumors�[excluding�non-melanoma skin cancer [NMSC]] (0.4, 0.3, 0.3, 0.3).Secukinumab 300 mg pooled safety remained favorable over timewith no increases in AEs (exposure adjusted IRs for up to Year1 to Year 5, respectively): total AEs (275.6, 168.1, 160.2, 111.9,13.9); nasopharyngitis (28.4, 21.2, 24.1, 11.8, 3.4); headache(12.6, 5.4, 4.3, 4.9, 0); URI (9.1, 7.3, 6.1, 5.5, 0); opportunisticinfections (0.2, 0.1, 0, 0, 0); Candida infections (4.7, 3.6, 1.9, 1.3,1.1); neutropenia (0.5, 0.1, 0, 0, 0); MACE (0.5, 0.1, 0.5, 0, 0);Crohn’s disease (0.1, 0, 0, 0, 0); ulcerative colitis (0.1, 0.4, 0.2,0.3,�0);�and�malignant�or�unspecified�tumors�[excluding�NMSC](0.4, 0.4, 0.2, 0, 0).Conclusions: This comprehensive pooled analysis supports thefavorable�long-term�safety�profile�of�secukinumab�in�patients�withpsoriasis;�no�new�safety�signals�were�identified�for�up�to�5�yearsof�treatment�and�secukinumab’s�safety�profile�was�consistent�withthat established in a large phase 3 program. Findings previously published at the AAD Annual Meeting, February16–20, 2018, San-Diego, California. </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Arthur Kavanaugh, Alice Gottlieb, Akimichi Morita, Joseph FMerola, Julie Birt, Chen-Yen Lin, Catherine L Shuler, DiamantThaçi</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>University of California, San Diego, CA, Department of Dermatology,New York Medical College at Metropolitan Hospital, New York, NY, USA,Nagoya City University Medical School, Nagoya, Japan, Harvard Medi-cal School, Brigham and Women’s Hospital, Boston, MA, Eli Lilly andCompany, Indianapolis, IN, USA, University Hospital Schleswig HolsteinCampus Luebeck, Ratzeburger Allee, Germany</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>P114</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>IMPACT OF IMPROVEMENT IN SKIN AND JOINT ON QUALITY OF LIFE IN ACTIVE PSORIATIC ARTHRITIS PATIENTS</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Introduction: Psoriatic arthritis (PsA) is a chronic immune-mediated�inflammatory�disease�affecting�peripheral�and�axialjoints. For patients with active psoriasis, the added burden of skindisease can further reduce health-related quality of life (HRQoL)of patients with joint disease.Objective:To determine the contribution of joint and skin impro-vements in HRQoL of patients with active PsA during Phase 3clinical trials investigating ixekizumab (IXE) treatment.Methods: The double-blind Phase 3 trials (SPIRIT) investigatedthe�treatment�of�IXE,�a�high-affinity�monoclonal�antibody�selec-tively targeting interleukin-17A, for patients with active PsA.The integrated database of 2 SPIRIT trials consisted of biologicdisease-modifying�antirheumatic�drug�(DMARD)-naïve�patients(SPIRIT-P1, NCT01695239) or inadequate responders to tumornecrosis factor (TNF)-inhibitors (SPIRIT-P2, NCT02349295).Patients were randomized to 80mg IXE every 4 weeks (Q4W,n = 229) or 2 weeks (Q2W, n = 226) after a 160mg starting dose or placebo (PBO, n = 224). At baseline and Week 24, joint and skin diseases were measured by the Disease Activity index for PSo-riatic Arthritis (DAPSA; calculated post-hoc) and Psoriasis Area and Severity Index (PASI), respectively. HRQoL was measured by EuroQoL 5 Dimensions Visual Analog Scale (EQ-5D VAS), Short Form-36 Health Survey (SF-36), and Work Productivity and�Activity�Impairment-Specific�Health�Problem�(WPAI).�The�synergistic contribution of skin and joint improvements to HRQoL was modeled using smoothing spline method and depicted with response surface. Missing data were imputed using last observa-tion carried forward.Results: Of 679 PBO- and IXE-treated patients in the SPIRIT trials,�402�(65%)�and�224�(36%)�patients�had�≥3%�body�surface�area�(BSA)�and�≥10%�BSA�psoriasis�at�baseline,�respectively.�In�these patients, we applied response surface modeling to investigate the relationship among DAPSA, PASI, and change from baseline in EQ-5D VAS at Week 24. The greatest improvement in EQ-5D VAS was associated with the largest percent improvements in both DAPSA and PASI together, rather than DAPSA or PASI alone.�Similar�observations,�regardless�of�≥3%�or�≥10%�BSA�ba-seline psoriasis, were made in domains of SF-36 (General Health, Physical Functioning, Social Functioning, and Vitality; data not shown) and WPAI (Activity Impairment; data not shown).Conclusion: For PsA patients with psoriasis, optimal improve-ments in patients’ HRQoL, as measured by select domains of patient-reported outcomes, were dependent on successful treatment of both joint and skin symptoms.Kavanaugh A, Gottlieb A, Morita A, Merola J, Birt J, Lin C-Y, Shuler CL, Thaci D. The Contribution of Skin and Joint Improvements to the Health-Related Quality of Life of Patients with Active Psoriatic Arthritis. Arthritis Rheumatol. 2017;69(Suppl 10).</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Alice B Gottlieb, John Sullivan, Alexey Kubanov, Ruquan You, Pascaline Regnault, Jennifer Frueh</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Department of Dermatology, New York Medical College, Metropolitan Hospital, NY, USA, Holdsworth House Medical Practice, Darlinghurst, Australia, State Scientific Center of Dermatology, Venereology and Cos-metology, Moscow, Russia, China Novartis Institutes for BioMedical Re-search, Shanghai, China, Novartis Pharma AG, Basel, Switzerland</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>P115</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>SECUKINUMAB SHOWS HIGH AND SUSTAINED EFFICACY IN SUBJECTS WITH MODERATE TO SEVERE PALMOPLANTAR PSORIASIS: 2.5­YEAR RESULTS FROM THE GESTURE STUDY</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Introduction: Palmoplantar psoriasis (ppPsO) occurs in up to 40% of plaque psoriasis subjects and is often resistant to treatment. It is associated with pain, functional limitations, and greater impair-ment of health related quality of life compared with plaque pso-riasis on other parts of the body (1). Secukinumab, a fully human monoclonal antibody which selectively neutralises IL-17A, has shown�long�lasting�efficacy�and�safety�in�the�complete�spectrum�of psoriasis manifestations, including nails, scalp, palms and soles and psoriatic arthritis.Objectives: Here�we�report,�the�long-term�follow-up�efficacy�and�safety�results�from�the�GESTURE�study,�the�first�robust�(2.5-year)�data reported in subjects with moderate to severe ppPsO treated with secukinumab.Methods: GESTURE is a double blind, randomised, placebo-con-trolled, parallel-group, multicentre phase 3b study to investigate safety�and�efficacy�of�secukinumab�150�and�300�mg�s.c.�in�205�subjects with moderate to severe ppPsO.Results: As previously reported, after 16 weeks placebo-controlled treatment, the primary endpoint palmoplantar Investigator’s Global Assessment (ppIGA) 0/1 and all secondary endpoints of this study were met, demonstrating superiority of secukinumab to placebo at week 16 (2). An interim analysis at week 80 established the continuation�improvement�of�palmoplantar�disease�for�all�effi-cacy parameters. The effect was sustained through 2.5 years with59.2% and 52.5% of subjects in secukinumab 300 and 150 mggroups, respectively [multiple imputation (MI)] achieving clearor almost clear palms and soles (ppIGA 0/1). Consistent with thisobservation, the mean palmoplantar Psoriasis Area and SeverityIndex % change from baseline reached –74.7% and –61.6% forsecukinumab 300 and 150 mg, respectively, at 2.5 years (MI).The Dermatology Life Quality Index 0/1 response, was achievedin 45.5% vs. 23.9% of subjects for secukinumab 300 and 150mg groups respectively (LOCF). Pain and function of palms andsoles�was�markedly�improved�with�secukinumab;�as�reflected�bythe Palmoplantar Quality of Life Instrument overall scores with16.7%�and�17.9%�subjects�experiencing�no�difficulty�in�hand�andfeet functionality in secukinumab 300 mg and 150 mg groupsrespectively�(LOCF).�The�safety�profile�was�consistent�with�thatseen in secukinumab phase 3 trials. The most common adverseevents across all treatment arms were nasopharyngitis, upperrespiratory tract infection and headache.Conclusions: GESTURE, the largest and longest duration rando-mised controlled trial to date, revealed that secukinumab providesa novel treatment option for the challenging and infrequentlystudied ppPsO population by providing a strong and sustainedresponse through 2.5 years.References:1. Kumar B, et al. Acta Dermatol Venereol. 2002; 82:192–5.2. Gottlieb A, et al. J Am Acad Dermatol. 2017; 76:70–80.This investigation was sponsored by Novartis Pharma AG, Basel, Swit-zerland.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Kristian Reich, Petr Arenberger, Ulrich Mrowietz, Sasha Jazayeri, Mat-thias Augustin, Anne Parneix-Spake, Pascaline Regnault, Ruquan You,Jennifer FruehDermatologikum Berlin and SCIderm Research Institute, Hamburg, Ger-many, Department of Dermatology, Charles University, 3rd Faculty ofMedicine, Prague, Czech Republic, Psoriasis Center at the Departmentof Dermatology, University Medical Center Schleswig-Holstein, Kiel, Ger-many, Alliance Dermatology and MOHS Center, Phoenix, USA, Univer-sität Hamburg, Hamburg, Germany, Novartis Pharmaceuticals Corpora-tion, East Hanover, USA, Novartis Pharma AG, Basel, Switzerland, ChinaNovartis Institutes for BioMedical Research, Shanghai, China</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>P116</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>SECUKINUMAB SHOWS HIGH AND SUSTAINED EFFICACY IN NAIL PSORIASIS: 2.5­YEAR TRANSFIGURE STUDY RESULTS</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Introduction: Nail�psoriasis�is�associated�with�decreased�fingermobility, functional impairment, pain and reduced quality of life(QoL) and is often challenging to treat. It correlates with moresevere psoriatic disease and is an important predictor of psoriaticarthritis (PsA). Nails are affected in up to 50% of psoriasis patients,with a lifetime incidence as high as 90%1. Secukinumab, a fullyhuman monoclonal antibody that selectively neutralises IL-17A,has�shown�long�lasting�efficacy�and�safety�in�the�complete�spec-trum of psoriasis manifestations, including nails, scalp, palms andsoles and psoriatic arthritis.Objectives: Here,�we�report�the�long-term�follow-up�efficacy�andsafety�results�from�the�TRANSFIGURE�study,�the�first�robust(2.5-year) data reported in subjects with nail psoriasis treatedwith secukinumab.Methods: TRANSFIGURE is a double blind, randomised,placebo-controlled, parallel group, multi-centre phase 3b study,to�investigate�safety�and�efficacy�of�secukinumab�150�and�300�mgs.c. in moderate to severe nail psoriasis, involving 198 subjects.Results: As previously reported, at week 16 the primary end-point NAPSI (NAil Psoriasis Severity Index) and all secondaryendpoints of this study was met, demonstrating superiority ofsecukinumab to placebo after 16 weeks placebo-controlled treat-ment2. An interim analysis at week 80 demonstrated the continua-tion�of�improvement�in�nail�psoriasis�for�all�efficacy�parameters.�The effect was sustained through 2.5 years with a large mean NAPSI�improvement�from�baseline�(BL)�of�−73.3%�and�−63.6%�with secukinumab 300 and 150 mg, respectively (as observed). Secukinumab demonstrated sustained reductions (improvements) in total mean NAPPA (Nail Assessment in Psoriasis and Psoria-tic�Arthritis)�QoL�scores�from�BL�to�2.5�years�by�−52.4%�and�−18.1%,�and�70.2%�and�71.0%�of�subjects�achieved�a�weighted�NAPPA-PBI�(Patient�Benefit�Index)�global�score�of�≥2�(at�least�moderate�benefits)�with�secukinumab�300�and�150�mg,�respec-tively (LOCF). Subjects showed considerable improvements in EQ-5D (EuroQOL 5-Dimension Health Status Questionnaire) compared with BL reporting decreased pain and discomfort. The safety�profile�was�consistent�with�that�observed�in�previous�phase�3 trials of psoriasis and PsA.Conclusions: TRANSFIGURE�is�the�first�large,�randomised�con-trolled trial to report long-term results in subjects with nail psoria-sis. Secukinumab demonstrated strong sustainability of clinically meaningful�efficacy,�large�QoL�improvement�and�a�favourable�safety�profile�up�to�2.5�years�in�this�challenging�form�of�psoriasis.This investigation was sponsored by Novartis Pharma AG, Basel, Switzerland.References:Baran R. Dermatology. 2010; 221 Suppl 1:1–5.Reich K. Ann Rheum Dis. 2016;75:603. </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Maria Chamurlieva, Tatiana Korotaeva</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>N.A.Nasonova Research Institute of Rheumatology</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P117 </t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>THE OBESITY AND PREVALENCE PSORIATIC ARTHRITIS IN PATIENTS WITH PLAQUE PSORIA SIS: DERMATOLOGICAL REAL­SETTING DATA</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Background: Psoriasis�(PsO)�is�a�chronic�inflammatory�disease,�which can be associated with the obesity. A link between body mass index (BMI) and psoriatic arthritis (PsA) has been found recently. But there is limited data about this association in Russian population and from real-world data.Objective:To study the incidence of PsA in PsO patients (pts) with/without obesity.Methods: 103 pts (male-47/female-56) with different forms of plaque PsO, mean age 44±13.69 years (yrs.), mean PsO duration 10.7±10.2 yrs., mean PASI 15.39±12.51 were included. 61 out of 103 pts with PsO (59.2%) had psoriatic arthritis (PsA) by CASPAR criteria. In all pts BMI was calculated. If the BMI was more than 30 it was regarded as obesity. M±m, %, t-test were peformed. All p &lt; 0.05�were�considered�to�indicate�statistical�significance.Results: The overweight in both groups of pts with PsO and PsA was�not�significantly�different:�in�30�pts�without�PsA�and�in�48�with PsA, 71.4% and 78.7% respectively. However, there was a significant�difference�in�the�frequency�of�PsA�in�the�group�of�pts�with a BMI  =  30–35 (obesity 1 degree). Thus, it was more than 4 times higher the pts with PsA, compared with pts without PsA - 19 and 4 pts (31.2% vs. 9.5%) respectively (p = 0.06).Conclusion: There is a higher incidence of PsA in PsO pts with obesity. It should be taken into account during choice of treatment and�evaluation�of�efficiency�of�therapy�in�real-world�dermatologi-cal setting. Russian population – based studies are needed. </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Kim Papp, Melinda Gooderham, Jennifer Beecker, Charles Lyn-de, Isabelle Delorme, Ignacio Dei-Cas, Emmanouil Rampaka-kis, Lenka Rihakova, Shamiza Hussein, Antonio Vieira</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>K Papp Clinical Research and Probity Medical Research, Waterloo, ON,SKiN Center for Dermatology, Queen’s University and Probity MedicalResearch, Peterborough, ON, University of Ottawa, Division of Dermato-logy, Ottawa, ON, Lynde Institute for Dermatology, University of Torontoand Probity Medical Research, Markham, ON, Dr. Isabelle Delorm Inc,Drummondville, QC, Canada, Facultad de Medicina de la Universidad deBuenos Aires, Buenos Aires, Argentina, JSS Medical, Saint-Laurent, QC,Novartis Pharmaceuticals Canada Inc., Dorval, QC, Canada</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>P118</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>DIAGNOSIS OF PSORIATIC ARTHRITIS IN PATIENTS WITH MODERATE TO SEVERE CHRONIC PLAQUE PSORIASIS TREATED WITH SECUKINUMAB VS. OTHER TREATMENTS IN THE PURE REGISTRY: INDICATION OF SELECTION PREFERENCES AND UNDERDIAGNOSIS</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Introduction: Secukinumab (SEC) is a fully human monoclonalantibody that selectively neutralizes IL-17A, a key cytokineinvolved in the development of psoriasis (PsO). SEC has shownlong�lasting�efficacy�and�safety�in�the�complete�spectrum�of�PsOmanifestations, including nails, scalp, palms and soles and psoriaticarthritis (PsA). PURE is an international registry of adult patients(pts) from Canada and Latin America with moderate to severe PsOtreated with SEC vs other approved therapies (other Tx).Objectives: To describe and compare the baseline demographic,disease,�and�clinical�characteristics�–�specifically,�the�history�ofa PsA diagnosis among PsO pts treated with SEC vs other Tx. Methods: Approximately 2,500 adult pts (1:1 ratio, SEC: other Tx)will be recruited. A decision regarding treatment must have beenreached prior to enrollment. The independent-samples and Chi-square tests were used for continuous and categorical variables,respectively, for treatment group comparison. Results: As of Nov 27, 2017, 1032 pts (397 SEC vs 635 other Tx)had been enrolled. Mean age (50.5 vs 49.4 years), time since diag-nosis (18.5 vs 16.9 years), duration since symptom onset (20.5 vs19 years), and race (78.6% vs 83.8% Caucasian) were comparablebetween groups. The percentage of females was lower in the SECgroup (38.0%) vs other Tx (45.5%; p = 0.037). At baseline, themajority of SEC-treated pts (66.2%) were employed, and 23.7%vs 34.8% vs 34.3% had public vs private vs combined coverage,respectively. There was no difference between cohorts. A higherproportion of SEC pts had a history of PsA (23.2% vs 15.0%;p = 0.001) or diabetes (18.1% vs 13.4%; p = 0.072) compared to ptson other Tx. About 87.9% pts with PsA history and 34.1% pts wit-hout had a Psoriasis Epidemiology Screening Tool (PEST) score≥3�at�baseline;�however,�the�diagnosis�of�PsA�in�these�pts�needs�tobe�confirmed.�In�terms�of�prior�PsO�treatments,�52.4%�vs�29.9%(p &lt; 0.001) of SEC vs other Tx pts had been previously treatedwith methotrexate, and 50.6% vs 18.0% (p &lt; 0.001) with a biolo-gic. Prior to enrollment, 4.7%, 13.2% and 4.7% pts in the otherTx�group�received�anti-IL-12/23,�anti-TNF-α,�and�anti-IL-17A,respectively. Pts treated with SEC had a higher historical PsoriasisArea and Severity Index (PASI) score (16.5 vs 14.2; p = 0.005),baseline PASI (13.6 vs 12.0; p = 0.001) and Investigator’s GlobalAssessment score (severe disease [score = 4]: 25.4% vs 20.1%)at enrollment compared to pts on other Tx. Conclusions: Pts with moderate to severe PsO selected for treat-ment with SEC were more likely to have been previously exposedto another biologic, have comorbid PsA and had more severeskin�disease,�compared�to�pts�treated�with�other�Tx.�A�significantproportion of PsO pts may have their PsA undiagnosed in routineclinical care. References:Langley R, et al. NEJM 2014;371:326.Armstrong AW, et al. J Clin Aesthet Dermatol 2016; S12-S16McInnes IB, et al. Lancet 2015;386:1137 Mease PJ, et a</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Wolf Henning Boehncke, Alice Gottlieb Atul Deodhar, BinDong, Yuhua Wang, Yanli Zhuang, William Barchuk, Xie L. Xu, Elizabeth Hsia</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Division of Dermatology and Venereology, Geneva University Hospital, and Department of Pathology and Immunology, University of Geneva, Ge-neva, Switzerland, Department of Dermatology, New York Medical Col-lege at Metropolitan Hospital, New York, NY, Oregon Health &amp; Science University, Portland, OR, Janssen Research &amp; Development, LLC, Spring House, PA, Janssen Research &amp; Development, LLC, San Diego, CA, USA</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>P119</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>EFFICACY AND SAFETY RESULTS OF GUSELKUMAB IN PATIENTS WITH ACTIVE PSORIATIC ARTHRITIS OVER 56 WEEKS</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Introduction/Objective:To�evaluate�the�efficacy,�safety�&amp;�tolera-bility of guselkumab (GUS) in patients (pts) w/ PsA.Methods: In this double-blind, PBO-controlled study, pts w/active PsA�&amp;�≥3%�BSA�of�PsO�despite�treatment�were�randomized�2:1�to SC GUS 100mg or PBO at wks0, 4, &amp; q8w thereafter through wk44. At wk16, pts w/ &lt; 5% improvement from baseline (BL) in swollen &amp; tender joint counts were eligible for early escape (EE) to open-label ustekinumab. At wk24, PBO pts crossed-over to GUS 100mg (PBO to GUS). The primary endpoint was ACR 20 at wk24. Major secondary endpoints were PASI 75 &amp; ACR 50 responses, change from BL in HAQ-DI, &amp; improvement in enthesitis (Leeds enthesitis index [LEI]) &amp; dactylitis score (by a 0–3 scoring system) at wk24; &amp; ACR 20 response at wk16. Through�wk24,�efficacy�analyses�were�performed�in�a�modified�Intent-to-Treat (mITT) population. Pts who met treatment failure criteria, EE or had missing data at wk24 were considered non-responders�for�ACR/MDA�endpoints�at�wk24.�Efficacy�post�wk24�was evaluated in pts who did not EE &amp; continued treatment at wk24 based on observed data.Results: Of 149 pts (PBO:49, GUS:100), BL demographics &amp; ACR component measures were generally similar between the 2 groups. 4�PBO�&amp;�9�GUS�pts�were�previously�exposed�to�anti-TNFα�agents.�At�wk24,�significantly�more�GUS�pts�achieved�ACR�20�(58.0%�vs�18.4%, p &lt; 0.001), PASI 75 (78.6% vs 12.5%, p &lt; 0.001), &amp; ACR 50 (34.0% vs 10.2%, p = 0.002) responses vs PBO. At wk24, mean decrease in HAQ-DI score from BL (-0.42 vs. -0.06, p &lt; 0.001), &amp; median percent improvement in enthesitis (100% vs 33.33%, p = 0.009) &amp; dactylitis (100% vs 33.33%, p &lt; 0.001) scores (among pts�w/�BL�enthesitis�and�dactylitis)�were�significantly�greater�in�GUS�group�vs.�PBO.�Significantly�more�GUS�pts�achieved�ACR�20 at wk16 (60.0% vs 16.3%, p &lt; 0.001) and MDA at wk24 (23.0% vs. 2.0%, p = 0.001)�vs.�PBO.�Post�wk24,�efficacy�improved�in�PBO to GUS crossover pts as expected and were well-maintained in GUS pts through wk56.Through wk24, the frequencies of AEs &amp; infections were compa-rable (AEs: PBO 32.7%; GUS 36.0%; infections: PBO: 20.4%; GUS: 16.0%). Post wk24, there was no disproportional increase in AE frequency or infections among GUS pts w/ longer exposure. Through wk56, there was 1 malignancy (basal cell carcinoma), 6 SAEs (myocardial infarction, osteoarthritis, pupils unequal, radius fracture, pneumonia, ulcerative keratitis), 2 pts discontinued treat-ment due to AEs, 1 grade 3 neutropenia, &amp; 6 pts were positive for antibodies to GUS. No deaths occurred through wk56.Conclusions: GUS�demonstrated�significant�improvement�on�joint�symptoms, physical function, PsO, enthesitis, dactylitis &amp; quality of�life;�efficacy�was�well-maintained�through�wk56.�GUS�was�well�tolerated in this population after ~1 year of exposure.Data has been previously presented at EULAR 2017 &amp; ACR 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Andrew Blauvelt, Howard Sofen, Kim Papp, Melinda Gooder-ham, Yang Zhao, Simon Lowry, Jeff Parno, Qing Li, Carmen La Rosa, Kristian Reich</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Oregon Medical Research Center, Portland, OR, Department of Medicine (Dermatology) UCLA, Los Angeles, CA, USA, Probity Medical Research, Waterloo, ON, Skin Centre for Dermatology, Peterborough, ON, Canada,Sun Pharmaceuticals, Princeton, NJ, Merck &amp; Co., Inc., Kenilworth, NJ,USA, SCIderm Research Institute and Dermatologikum Hamburg, Ham-burg, Germany</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>P120</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>TILDRAKIZUMAB EFFICACY OVER TIME BY WEEK 28 RESPONSE LEVELS IN TWO PHASE 3 CLINICAL TRIALS IN PATIENTS WITH CHRONIC PLAQUE PSORIASIS</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Introduction: Tildrakizumab�(TIL),�a�humanized,�IgG1/κ�mono-clonal�antibody�for�IL-23p19,�recently�demonstrated�its�efficacyin subjects with chronic plaque psoriasis in two, phase 3 clinicalstudies1.Objective:In�this�analysis,�we�examined�efficacy�from�baselineto week 52 among TIL patients achieving various Psoriasis Areaand Severity Index (PASI) responses at week 28.Methods: ReSURFACE 1 (NCT01722331) and reSURFACE 2(NCT01729754) were double-blind, randomized controlled studiesin subjects with moderate-to-severe chronic plaque psoriasis. Part1 (0–12 weeks) was placebo controlled; Part 2 (12–28 weeks)re-randomized placebo patients to TIL; Part 3 (28–64 weeks,reSURFACE 1; 28–52 weeks, reSURFACE 2) re-randomized pa-tients�with�≥PASI�50�to�continue�or�increase�TIL�dose�or�to�placebobased on their PASI response at week 28. In this post-hoc pooledanalysis, patients consistently on TIL 100 mg and 200 mg frombaseline�to�week�52�were�classified�in�5�mutually�exclusive�groupsbased on their week-28 PASI response: PASI  &lt; 50, PASI 50–74,PASI 75–89, PASI 90–99, and PASI 100. Baseline characteristicsand % PASI improvement from baseline up to week 52 (observeddata) were examined for each group.Results: This analysis included 575 (TIL 100 mg) and 581 (TIL200 mg) patients; the proportions of patients with week-28 PASI75/90/100 responses were 77%/54%/23% (TIL 100 mg) and78%/58%/29% (TIL 200 mg). At week 28, 133 (23.1%), 175(30.4%), 137 (23.8%), 82 (14.3%), and 48 (8.3%) TIL 100 mgpatients and 170 (29.3%), 169 (29.1%), 114 (19.6%), 105 (18.1%),and 23 (4.0%) TIL 200mg achieved PASI 100, PASI 90–99, PASI75–89, PASI 50–74, and PASI  &lt; 50, respectively. On average,PASI 100 patients were younger, lighter, and had shorter diseaseduration at baseline compared to other response groups. For TIL100 mg, % PASI improvement was highest for PASI 100 and leastfor PASI &lt; 50 patients on all visits up to week 28 (week 4: 53%,46%, 38%, 30%, and 16%; week 28: 100%, 95%, 83%, 64%, and33% for PASI 100, PASI 90–99, PASI 75–89, PASI 50–74, andPASI  &lt; 50 categories, respectively). Among patients achievingPASI  &gt; 50 at week 28 and continued up to 52 weeks, % PASIimprovement maintained or improved from week 28 to week 52.Similar results were observed for TIL 200 mg as well as a subgroupanalysis with bio-naive and bio-experienced patients respectively.Conclusions: The majority of TIL 100 and 200 mg patients achie-ved PASI &gt; 50 response at week 28, and PASI improvement wasmaintained from week 28 to week 52. Among patients achievingPASI  &gt; 90 at week 28, TIL 100 and 200 mg were associated witha rapid PASI improvement by week 4.Reference:1. Reich K, Papp KA, Blauvelt A, et al. Tildrakizumab versus placeboor etanercept for chronic plaque psoriasis (reSURFACE 1 and reSUR-FACE 2): results from two randomised controlled, phase 3 trials. Lancet.2017;390(10091):276-288.This abstract was presented at 2018 Annual Meeting of American Academyof Dermatology.Note: This abstract was presented at 2018 Annual Meetingof American Academy of Dermatology. </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Lynn Price, Jennifer Robinson, Gianna Melendez</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Spherix Global Insights</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>P122</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>POTENTIAL DISCONNECT: CO­MANAGEMENT OF PATIENTS WITH PSORIATIC ARTHRITIS BETWEEN RHEUMATOLOGISTS AND DERMATOLOGISTS</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Introduction: On average, the majority of psoriasis (PSO) patientsare diagnosed a year prior to a psoriatic arthritis (PsA) diagnosis,making the referral patterns and co-management between derma-tologists and rheumatologists an important aspect to understanding the management of these diseases. Dermatologists represent an important referral-base for rheumatologists, accounting for over one-quarter of all new PsA patients. However, there are discrepan-cies between the specialists regarding the timing in which these referrals take place.Objectives: One objective of the study was to gain further insight into rheumatologist and dermatologist co-management of patients with PsA.Methods: An�independent�market�analytics�firm�collaborated�with�US rheumatologists (n = 101) and US dermatologists (n = 101) to conduct analysis of both the PsA and PSO markets. Data were collected�via�an�online�survey�fielded�in�November/December�2017 and included patient demographics, as well as physician demographics, and attitudinal survey responses.Results: Rheumatologists indicate that 51 percent of referrals result from primary care physicians, 28 percent result from a dermato-logist, and 13 percent are self-referred. The majority (73%) of PsA patients under the care of collaborating rheumatologists had previously been diagnosed with PSO prior to PsA. Dermatologists state that one-quarter of their patients with severe PSO also have PsA, with more than one-third of severe PSO patients also being co-managed with a rheumatologist. The majority of rheumatolo-gists�believe�that�dermatologists�refer�patients�at�the�first�sign�of�joint involvement and do not attempt to treat joint pain; however, 31 percent of dermatologists report they do not refer PSO patients to rheumatologists until patients have failed biologics or are not improving on their current systemic regimen, while an additional 35 percent report they refer only severe arthritis/patients with worsening disease. Furthermore, only 35 percent of dermatologists agree that they refer their PSO patients to a rheumatologists at the first�sign�of�joint�involvement.At the time of dermatologist referral, rheumatologists state that two-thirds�of�referred�patients�are�biologic/apremilast�naïve,�with�only 6 percent having controlled PSO and joint pain. However, dermatologists state that 40 percent the patients that they referred to rheumatologists were treated with biologics and 15 percent of said referred patients were treated with apremilast. Indeed, 76 percent of dermatologists agree with the statement, “I believe that starting my PSO patients earlier on biologic therapy will slow the development and progression of the arthritic component of the disease (PsA),” while 57 percent of dermatologists agree “I prefer to use biologics that are indicated in both PSO and PsA.” Conclusion: With many patients diagnosed with both PSO and PsA, co-management between dermatologists and rheumatolo-gists is common. While rheumatologists appear to be under the impression that they are receiving the majority of dermatologist-treated�patients�with�PsA�at�the�first�sign�of�joint�involvement,�dermatologists largely report that they are managing and treating PsA patients. Furthermore, most dermatologists believe early ag-gressive use of biologic treatments will mitigate the development and/or progression of joint involvement, implying their willingness to manage their patients with PsA, particularly at early stages. </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Lynn Price, Jennifer Robinson, Gianna Melendez</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Spherix Global Insights</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>P123</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>THE USE OF TUMOR NECROSIS FACTOR INHIBITORS (TNF) IN THE SECOND­LINE BIOLOGIC/SMALL MOLECULE SETTING: A CROSS­SPECIALTY COMPARISON</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TNF therapy has been the standard of care for adult patients diagnosed with autoimmune conditions, resulting in familiarity, comfort, and satisfaction among physicians. TNFs are typically used�as�a�first-line�biologic/small�molecule�in�the�treatment�of�psoriasis (PSO) and psoriatic arthritis (PsA). However, the adop-tion of agents with alternate mechanisms of action (AMOA) has increased in recent years across indications and the practice ofsequential TNF prescribing after an initial TNF is less common.Though�TNFs�are�still�the�preferred�first-line�agent,�there�are�dis-crepancies between specialists on the use of AMOA agents in thesecond-line setting. This research sought to understand the extentto which AMOA agents are prescribed after an initial TNF, andhow this varies across PSO and PsA.An�independent�market�analytics�firm�collaborated�with�US�der-matologists (n = 201) and US rheumatologists (n = 200) to con-duct a retrospective chart review of patients diagnosed with PSO(n = 950) and PsA (n = 1,008) who had switched from one biologic/apremilast to another agent in the prior 12 weeks. Physicians wereable to submit up to 7 patient charts. PSO data was collected inSeptember 2017 and PsA data was collected in April 2017.Analysis of patients recently switched from one biologic/apre-milast to a different brand revealed the majority of patients weretreated�with�a�TNF�in�the�first-line�biologic/small�molecule�set-ting, though this varies by indication. Rheumatologists prescribefirst-line�TNFs�significantly�more�than�dermatologists.�83%�ofPsA�patients�are�prescribed�TNFs�first-line�compared�to�just�69%of�PSO�patients.�Furthermore,�rheumatologists�are�significantlymore likely to practice TNF-sequencing than dermatologists.Indeed,�44%�of�PsA�patients�treated�with�a�first-line�TNF�wereprescribed a second TNF, compared to 6% of PSO patients. Ad-ditionally, certain TNF brands have experienced recent declinesin�first�line�use,�though�this�varies�by�indication�as�well.�For�rheu-matologists,�use�of�first-line�etanercept�has�declined,�38%�of�PsApatients were initiated on etanercept at least 24 months prior tothe study, compared to just 28% initiated on etanercept within 12months�of�the�study.�For�dermatologists,�there�were�significantlymore�PSO�patients�initiated�on�etanercept�in�the�first-line�setting24 months or more prior to the study compared to those initiatedwithin 12 months of the study, (45% vs 31%.) This pattern alsoheld�true�for�adalimumab,�where�42%�of�first-line�PSO�patientsinitiated more than 24 months prior to the study were prescribedadalimumab,�a�figure�that�drops�to�just�27%�for�patients�initiatedwithin 12 months.Though�the�position�of�TNFs�as�first-line�agents�remains�dominant,the�treating�specialist�and�indication�influence�how�widespread�andcontinuous�TNF�use�is.�Specifically,�dermatologists�are�less�likelyto�prescribe�TNFs�as�first-line�agents�and�are�also�significantlyless�likely�to�partake�in�the�sequencing�of�TNFs�in�the�first-�andsecond-line setting than rheumatologists. The introduction ofseveral agents in PSO reporting substantially higher rates of skinclearance compared to TNFs could potentially be the source ofincreased switching to AMOAs compared to other specialties;whereas�superior�efficacy�of�AMOA�agents�over�TNFs�in�PsAmay be less apparent. </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Luis Puig, Chenglong Han, Ron Vender, Michael Song, YinYou, Yaung-Kaung Shen, Peter Foley</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Hospital de la Santa Creu i Sant Pau and Universitat Autònoma de Bar-celona Medical School, Barcelona, Spain, Janssen Research &amp; Develop-ment, LLC, Spring House, PA, USA, McMaster University, Hamilton, ON,Canada, University of Melbourne, St. Vincent’s Hospital, Melbourne andSkin &amp; Cancer Foundation Inc., Carlton, Victoria, Australia</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>P124</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>IMPACT OF GUSELKUMAB VERSUS PLACEBO AND ADALIMUMAB ON PATIENT REPORTED OUTCOMES IN PATIENTS WITH AND WITHOUT PSORIATIC ARTHRITIS IN VOYAGE 2</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Introduction/Objective:VOYAGE 2 is a phase 3 double-blind,placebo/active comparator-controlled trial comparing guselkumab(GUS) with placebo (PBO) and adalimumab (ADA) in patients(pts) with moderate-to-severe PsO. The impact of treatment onpatient-reported outcomes (PROs) was evaluated.Methods: Pts were randomized to GUS 100mg (wks 0 &amp; 4, thenq8wks), ADA (80 mg wk 0, 40 mg wk 1, then 40 mg q2 wks), or PBO (wks 0, 4, &amp; 12, then GUS 100 mg wks 16 &amp; 20). We evaluated PROs using the Work Limitations Questionnaire [WLQ; work productivity], the Hospital Anxiety &amp; Depression Scale [HADS], and the Medical Outcomes Study 36-Item Short Form (SF-36; health related quality of life) at wk16 (GUS vs PBO) and wk24 (GUS vs ADA) in pts with and without PsA.Results: In all, 18% of pts reported a history of PsA. At wk16, GUS pts had numerically greater improvements vs PBO in work productivity, anxiety and depression, and SF-36 PCS &amp; MCS scores regardless of PsA status. The least square (LS) mean dif-ferences (95% CI; adjusted for baseline value) for GUS vs PBO for all PROs were generally similar between pts with and without PsA. At wk24, GUS pts had numerically greater improvements vs ADA in all PROs regardless of PsA status. The LS mean dif-ferences for GUS vs ADA were generally greater for pts with PsA vs pts without PsA (Table).Conclusions: GUS showed better improvements in all PROs vs PBO at wk16 and vs ADA at wk24. Improvements vs PBO were similar regardless of PsA status, while improvements vs ADA were greater for pts with PsA.Table: Summary of Change from Baseline in WLQ, HADS and SF-36 Scores from VOYAGE 2Week 16 GUS vs PBOWeek 24 GUS vs ADAw/ PSAw/out PSAw/ PSAw/out PSAN, LSMean Diff (95% CI)p-valueN, LSMean Diff (95% CI)p-valueN, LSMean Diff (95% CI)p-valueN, LSMean Diff (95% CI)p-valueWLQ Physical Demands86, -7.1(-13.21, -0.92)0.0249446, -7.7(-10.56, -4.88)&lt; 0.0001 79, -1.6 (-10.58, 7.29)0.7152 445, -2.6(-5.39, 0.28)0.0769WLQ Time Management85, -6.6(-15.35, 2.06)0.1326419, -7.0(-10.31, -3.79)&lt; 0.0001 79, -4.3 (-14.40, 5.81)0.3996 420, -0.6(-3.46, 2.30)0.6931WLQ Mental-Interpersonal83, -3.8(-11.03, 3.35)0.2913439, -4.9(-7.54, -2.35)0.000278, -11.4 (-19.37, -3.34)0.0061 436, -1.5(-4.16, 1.11)0.2569WLQ Ouput Demands84, -7.9(-14.51, -1.21)0.0211440, -3.5(-6.11, -0.88)0.008979, -14.7 (-24.29, -5.17)0.0030 437, -1.2(-3.94, 1.62)0.4136Anxiety Score135, -1.2(-2.45, 0.04)0.0584608, -1.6(-2.05, -1.07)&lt; 0.0001 133, -2.1 (-3.33, -0.83)0.0012 608, -0.8(-1.29, -0.28)0.0025Depression Score135, -1.2(-2.55, 0.06)0.0611608, -1.5 (-1.96, -0.98)&lt; 0.0001 133, -1.5 (-2.85, -0.09)0.0374 608, -0.4(-0.91, 0.10)0.1158SF-36 Physical Score135, 5.7(2.94, 8.43)&lt; 0.0001 607, 4.4 (3.31, 5.39)&lt; 0.0001 132, 2.9(0.21, 5.57)0.0346 608, 1.0(-0.10, 2.04)0.0753SF-36 Mental Score135, 4.5(1.61, 7.48)0.0026607, 4.8 (3.53, 6.15)&lt; 0.0001 132, 3.2 (-0.12, 6.53)0.0591 608, 1.8(0.45, 3.15)0.0092N is the sample size across two groups.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Nadezhda Batkaeva, Edgem Batkaev, Muslimat Gitinova</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Peoples' Friendship University of Russia (RUDN University)</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>P125</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>THE DERMATOLOGY LIFE QUALITY INDEX IN RUSSIAN PATIENTS WITH PSORIASIS AND PSORIATIC ARTHRITIS.</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Introduction: The most severe form of psoriasis is psoriatic arthritis (PsA), which belongs to the seronegative spondyloarthritis group, characterized�by�chronic�inflammation�of�the�joints,�spine,�enthe-sis. The frequency of PsA in the population is 0.06–1.4%. PSA is comparable to rheumatoid arthritis (RA) in terms of progression, disability and quality of life (QOL) in patients.Objectives: Compare the quality of life index of patients with severe forms of psoriasis (PsO) with psoriatic arthritis patients’ index.Methods: 120 (100%) patients suffering from PsO and PsA (Male-87/female - 33) were analyzed. 70 (54.2%) patients were diagnosed PsO, 50 (41.7%) were diagnosed PsA. The average age of patients with skin manifestations PsO was 54.0±14.2 years (n = 70). The average age of patients with PsA was 49.1±15.9 years (n = 50). The group of patients with PsA was older than the groupPsO patients by age. PASI  &gt;  10. The quality of life was assessedusing the Dermatology Life Quality Index (DLQI) questionnaire.The results were evaluated: from 0 to 1 score - cutaneous diseasedoes not affect the patient's life, from 2 to 5 scores - the diseasehas a minor effect on the patient's life, from 6 to 10 scores - thedisease has a moderate effect on the patient's life, from 11 to 20scores - the disease has a very strong effect on the patient's life,from 21 to 30 scores - the disease has an extremely strong effecton the patient's life. Statistical processing of the data was carriedout using the Excel analysis package. All p &lt; 0.05 were consideredto�indicate�statistical�significance.Results: 120 (100%) patients suffering from PsO were taken foranalysis. The duration of PsO was: for more than 15 years - 25people (35.7%), 10–15 years - 18 people (25.7%); 3–10 years -15 people (21.4%), 1–3 years - 12 people (17.1%). The durationof PsA was: for more than 15 years – 5 people (10.0%), 10–15years – 7 people (14.0%); 3–10 years – 20 people (40.0%), 1–3years – 18 people (36.0%). Heredity was aggravated in 35 (29.1%)out of 120 patients. Comorbidity was presented in 112 (93.3%) outof 120 patients. Gastrointestinal and liver diseases were found in48 (42.8%) out of 120 patients. Type 2 diabetes was observed in45 (40.1%) out of 120 patients, cardiovascular diseases - in 100(89.2%) out of 120 patients, diseases of the nervous system - in 59(52.6%) out of 120 patients, and diseases of the urinary system - in20 (17.8%) out of 120 patients.The total score DLQI in the psoriasis group was 15.8±5.2. Thescore DLQI in PsO patients was 12.5±3.4 and in PsA patients was20.4±3.7. The total score DLQI in PsO patients with comorbiditywas 16.1±5.3.Conclusions: The�total�score�DLQI�was�significantly�higher�inpatients with PsA compare to PsO patients. This result revealedthe existence of an inferior quality of life for the PsO patients withcomorbidity disease, compared with pts without comorbidity di-sease. The score of DLQI is affected the development and progressof the psoriasis and comorbidity pathology. Then higher DLQIvalue, the more it affects experience considerable physical and/or�psychological�discomfort,�difficulties�in�social�and�professionaladaptation,�which�subsequently�cause�significant�distress�and�evensocial phobia. All these conditions psoriasis are interrelated bygenetic and immunopathogenetic mechanisms. Thus, patients withpsoriasis require an integrated approach and dynamic observationby dermatologists and doctors of related specialties.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Alan Maddock, David Hevey</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>School of Psychology, Trinity College Dublin</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>P126</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>EFFECTS OF MINDFULNESS­BASED COGNITIVE THERAPY ON SELF­REPORTED PSORIASIS AND PSYCHOLOGICAL SYMPTOMS</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Introduction: Psoriasis can have a profound impact on a patient’slife, with the prevalence of anxiety, depression, poor wellbeingand quality of life generally found to be high in psoriasis popula-tions. Mindfulness based interventions have been shown to havepositive impacts on anxiety, depression, wellbeing and quality oflife in various populations.Objectives: The aim of the present study was to investigate the ef-fect of mindfulness-based cognitive therapy (MBCT) on psoriasissymptoms and psychological symptoms associated with psoriasisincluding anxiety, depression, reduced wellbeing and QoL. Thestudy�also�aimed�to�investigate�if�MBCT�significantly�impactedthe potential mediating variables of a new theory of mindfulnessmechanisms�the�‘Clinically�Modified�Buddhist�PsychologicalModel (CBPM)’, these variables being acceptance, mindfulness,self-compassion, aversion, non-attachment, attention, ruminationand worry.Methods: 101 participants were randomly allocated to a treatment arm (MBCT) or a TAU arm. Participants were measured pre, post-treatment and after a 3-month follow up period. Data were analysed using intention-to-treat analysis and the ANCOVA method with baseline scores entered as covariates.Results: There�was�a�significant�group×time�(pre�vs.�post)�interac-tion�on�all�variables�except�QoL,�indicating�a�significant�reduction�of each variable except QoL over time in the MBCT group, but not in the control group. When baseline variables were controlled for, the participants in the MBCT group achieved small statistically significant�changes�across�all�variables�post�intervention�versus�the TAU group.Conclusions: The results suggest that MBCT may be a useful ad-junct therapy for those suffering from psoriasis and the associated psychological symptoms relating to the condition. The results also indicate that each of the mechanisms outlined in the CBPM change�significantly�for�patients�who�engage�in�the�intervention.�</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Alan Maddock, David Hevey</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>School of Psychology, Trinity College Dublin</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>P127</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>A MIXED METHODS STUDY EXPLORING THE IMPACT OF MINDFULNESS ON PSORIASIS, ANXIETY, DEPRESSION AND QOL</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Introduction: Psoriasis is a common condition with recognised psychological comorbidity. Psoriasis can have a profound impact on a patient’s life, with the prevalence of anxiety, depression, poor wellbeing and quality of life generally found to be high in psoriasis populations. Based on Buddhist psychology, mindfulness based interventions have been shown to have positive impacts on anxiety, depression, wellbeing and quality of life in various populations.Methods: Mixed methods explored the impact of a mindfulness based cognitive therapy (MBCT) intervention on 10 psoriasis patients using a Buddhist Psychological Model (BPM) as a theoretical framework to understand changes in these variables. Quantitative measures of acceptance, attention regulation, at-tachment, aversion, self-compassion, mindfulness, rumination, worry, wellbeing, anxiety, depression and psoriasis symptoms were completed pre and post intervention, and participants were interviewed about their experiences of MBCT.Results: Statistically�significant�changes�in�attention,�mindfulness,�attachment, aversion, rumination, quality of life, anxiety and psoriasis were found. The qualitative data provided support for the BPM as a theoretical lens with which to understand the way in which mindfulness impacts on patient quality of life, anxiety and psoriasis symptoms.Conclusions: This study gives support to the promising potential of mindfulness interventions being implemented by mental health care professionals with psoriasis patients. </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>A-M Orbai, L Coates, VF Azevedo, A Garg, A Majjhoo, CEM Griffiths, P Young, JC Cappelleri, J Moser, L Fallon</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Johns Hopkins University School of Medicine, Baltimore, MD, USA, University of Oxford, Oxford, UK, Universidade Federal do Paraná, Curitiba, Brazil, Donald and Barbara Zucker School of Medicine at Hofstra/Northwell, Hempstead, NY, Shores Rheumatology, MI, USA, University of Manchester, Manchester, UK, Pfizer Inc, Collegeville, PA, Pfizer Inc, Groton, CT, The Harris Poll, Rochester, NY, USA, Pfizer Canada, Montréal, QC, Canada</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>P128</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A LINK BETWEEN QUALITY OF PATIENT­PHYSICIAN COMMUNICATION AND PATIENT HEALTHCARE NEEDS IN PSA </t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Introduction: Patient(pt)-physician(HCP) communication may influence�symptom�reporting�and�disease�control.Objectives: To evaluate psoriatic arthritis (PsA) symptoms, life impact and treatment satisfaction in pts who report good commu-nication with their HCP vs suboptimal communication.Methods: An online pt-based survey was conducted in the USfrom 2 Nov–1 Dec 2017. Pts had reported having PsA for  &gt; 1year,�taken�≥1�synthetic(s)�or�biologic(b)�DMARD�for�PsA.�Ptsreported overall health, PsA severity/symptoms/life impact, tre-atment satisfaction and communication experience. We evaluateddifferences by pt-HCP communication status.Results: Overall, 301 pts with PsA responded, mean age 45 years,61% female, 89% self-reported moderate/severe PsA. Current PsAtreatments included bDMARD (52%), sDMARD (25%), combi-nation b/sDMARD (15%). Overall, 256 (85%) of PsA pts weremanaged by a rheumatologist and 15% by a dermatologist. Of the256,  &gt; 40% reported suboptimal pt-HCP communication. Pts inthe suboptimal vs good communication subgroups were typicallyyounger, more likely to be Hispanic and reported greater life im-pact and lower satisfaction with pt-HCP communication (Table).Table. Pts with PsA managed by rheumatologist (n = 256) “I worry that if I ask too many questions my healt-hcare professional will see me�as�a�difficult�patient�and�it will affect the quality of care I receive”“I often tell my healthcare professi-onal�I�am�fine�when�I am really expe-riencing symptoms” Agreen = 105 (41%)%Disagreen = 151 (59%)%Agreen = 118 (46%)%Disagreen = 138 (54%)%Mean age (years)41.946.8*41.647.5*WhiteHispanicBlack662010731575826*1180*97Symptoms in past 12 monthsJoint painSkin/nail symptomsStiffness Joint swelling85837470908479728684727589838268Moderate PsA70*555864Severe PsA23323325Reported impact on-emotional well being-work productivity-romance/intimacy-decision to start family-education76*69*67*40*35*595648241778*69*66*42*36*5654462115Very�satisfied�with�HCP�communication 4375*5271*Very�satisfied�with�treatment2945*3640Stopped taking treatment22*819*9*p &lt; 0.05Conclusions: Pts who reported suboptimal communication withtheir HCP may have greater healthcare needs for their PsA vsother pts.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Elena Popa, Alexandra Brahas, Caius Solovan</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Department of Dermatology and Venereology, Clinical Emergency CityHospital Timisoara; University of Medicine and Pharmacy “Victor Babes”Timisoara, Romania, University of Medicine and Pharmacy “Victor Ba-bes” Timisoara, Romania</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>P129</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>PSORIASIS PATIENTS POINT OF VIEW: WHAT ARE WE MISSING WHEN MANAGING THEM?</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Introduction: Psoriasis is a skin disease that can occur at anytime and it is most common in the age group 50–69. The reportedprevalence of Psoriasis in countries ranges between 0.09% and11.4%, making it a serious global problem.Psoriasis affects the quality of life and it is associated with manycomorbidities such as depression, diabetes, cardiovascular diseaseand psoriatic arthritis.To�evaluate�the�severity�and�the�efficiency�of�the�treatment�appliedto patients with Psoriasis, in practice it is used PASI (PsoriasisArea and Severity Index). The value may vary, for example, in thisstudy, PASI 75 represents the percentage (or number) of patientsthat have achieved a 75% or more reduction in their PASI scorein 12 weeks from baseline.Objectives: Aim of this study is to gain a better perspective onthe Psoriasis patient’s point of view when seeking a physician’shelp, therefore, to try and minimize the gaps that exist when managing them.Methods: This study was based on a custom questionnaire which included 14 questions for each patient. The responses were gathered from 20 patients (and it is still ongoing) diagnosed in our Department of Dermatology and Venereology Timisoara, each in�different�stages�of�disease.�All�the�answers�are�confidential�and anonymous. An informed consent was signed prior to any taken actions. To achieve meaningful results, we asked patients to be honest and to present the situation in a real way. The most important question on the questionnaire was “Which of the three options represents the PASI score you would like to achieve? 50/75/90?”. In addition to this question, we provided the patients with three pictures each of them showing a different PASI score, so they can choose the proper answer much easier.Results: 80% of the patients chose PASI 90, 15% chose PASI 75 and only 5% chose PASI 50.In addition to this, the gender distribution showed us that 100% of the female patients chose PASI 90, proving how important appearance is for them, and how much of a weight it is for them to have disease that is in the limelight. On the other hand, the male patients were divided into three groups. 69% said that the efficiency�of�the�therapy�is�very�good,�choosing�PASI�90.�Only�23% of male patients consider PASI 75 satisfying and the last 8% represents PASI 50.Conclusions: Psoriasis�is�a�chronic�inflammatory�disease,�which�is intensively studied at the cellular and molecular level. What is considered a good response to a treatment is sometimes different from the perception of a patient vs. a physician, therefore we must always keep a balance between aiming high (and maybe risking to over-treat some patients) and meeting the patient’s expectations. </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Albert Duvetorp, Mikkel Østergaard, Lone Skov, Oliver Seifert, Kåre Steinar Tveit, Kjersti Danielsen, Lars Iversen</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Skånes Universitetssjukhus, Malmö, Sweden; Linköping University, Lin-köping, Sweden, Copenhagen Center for Arthritis Research, Center for Rheumatology and Spine Diseases, Rigshospitalet, Glostrup, University of Copenhagen Copenhagen, Herlev and Gentofte Hospital, University of Copenhagen, Denmark, Linköping University, Linköping, Sweden; Ryhov Hospital, Jönköping, Sweden, Haukeland University Hospital, Bergen, UiT The Arctic University of Norway; University Hospital of North Nor-way, Tromsø, Norway, Aarhus University Hospital, Aarhus, Denmark</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>P130</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>THE IMPACT OF PSORIASIS AND PSORIATIC ARTHRITIS ON QUALITY OF LIFE AND CAREER IN SCANDINAVIA</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Introduction: Patients’ perspectives on the effects of psoriasis (PsO) and psoriatic arthritis (PsA) on health-related quality of life (HRQoL) are important in establishing better approaches to their care and treatment.Objectives: To better understand the impact of PsO and PsA on daily life, education and work in Scandinavian countries.Methods: The NORdic PAtient survey of PsOriasis and Psoriatic arthritis (NORPAPP) was an on-line survey carried out in Nov/Dec 2015 using YouGov panels in Sweden, Denmark, and Norway. Adults (18–74 years old), with physician-diagnosed PsO or PsA (n = 1221), answered questions about the impact of disease on 10 aspects of daily activity/mood and on work/education; 5-point Likert scale responses were dichotomised into “no/minor impact” (1–3 or “don’t know”) and “strong impact” (4–5).Results: For the 10 aspects of activity/mood a “strong impact” was reported�for�≥4,�1–3�or�0�aspects�by�22.8%,�24.2%,�and�61.9%�of�respondents with PsO alone and 44.5%, 63.0%, and 27.0% of those with PsA±PsO. The most commonly reported strong impacts were limitations on dress (22.6%), sleep disorders (16.3%) and depres-sion and/or anxiety (16.2%) for respondents with PsO alone; and, daily routine (45.1%), leisure/sports (44.0%), sleeping disorders (44.5%), and limitations on clothing (41.8%) for respondentswith PsA±PsO. Regarding the impacts on work/career or educa-tion since development of symptoms, 6.4% of respondents withPsO alone and 30.3% of those with PsA±PsO reported a strongnegative impact. Of the 82.2% of respondents who were workingor studying, frequency of absences in the previous 12 monthswere�significantly�higher�(Bonferroni�corrected�z-tests,�total�α� =0.05) among those who: had PsA±PsO vs PsO alone; perceivedtheir symptoms to be severe vs non-severe; used systemic vsonly topical treatments; were aged 18–44 years vs 45–74; weremembers of patient groups vs non-members; saw a dermatologistor rheumatologist at least annually vs those who did not.Conclusion: PsO has a profound impact on the HRQoL and career/education of individuals with these conditions in Scandinavia. Theimpact is greater among individuals with PsA±PsO.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Hind Madani</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>University of Khartoum- faculty of medicine</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>P131</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>QUALITY OF LIFE OF PATIENTS WITH PSORIASIS IN KHARTOUM DERMATOLOGY HOSPITAL, DECEMBER 2017</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Introduction: Psoriasis is a common chronic non-contagious skindisease, affecting 1–3% of the world population. Defects in theimmune�regulation�and�the�control�of�inflammation�are�thoughtto play major roles. Quality of life (QOL) is increasingly recog-nized as an important outcome measure in dermatology. Psoriasisalthough it doesn’t affect the survival it has a great impact on qua-lity of life of patients, and has a strong effect on social relations,psychological status, daily activities and thought to be associatedwith depression.Objectives: The aim of this study was to determine the impact ofpsoriasis on the quality of life(QOL) of the patients in Khartoumdermatology hospital, 2017.Methods: Descriptive case series study, hospital based surveyconducted among 70 participants from psoriasis patients agedabove 18 years in Khartoum dermatology hospital, through self-administered standard questionnaire, which was developed afterextensive literature reviewing, comprised of Socio-demographicdata, psoriasis life stress inventory(PLSI), psoriasis disabilityindex(PDI) and depression assessment.Results: 64.3% of the participants have a high psoriasis-relatedstress (PLSI) and 35.7% have a low psoriasis-related stress. 21.4%of the participants have a very large disability in daily activities(PDI), 37.1% have a large disability, 24.3% have a moderate disa-bility, 14.3% have a mild disability and 2.9% have no disability atall.7.1% of the participants have a moderately severe depression,15.7% have a moderate depression, 35.7% have a mild depres-sion, 41.4% have none or minimal depression and none of theparticipants has a severe depression.Conclusion: the study concluded that psoriasis has impacts onthe quality of life, causing high stress and high disability in dailyactivities with variable degrees of depression.Key words: psoriasis, QOL, PLSI, PDI, depression.References:1. El-Moselhy EA, Atlam SA, Mohammed AS, Hassan HM, Ebrahim AM(2015) Psychosocial Impact and Quality of Life among Adult Egyptianwith Psoriasis. Dermatol Case Rep 1: 104. 2. Abbas Darjani N. Qualityof Life in Psoriatic Patients: A Study Using the Short Form-36 [Internet].PubMed Central (PMC). 2017 [cited 30 March 2017]. Available from:https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4192777/3. Finlay AY, Coles EC. The effect of severe psoriasis on the quality oflife of 369 patients. Br J Dermatol\1995;132:236-44. CrossRef PubMedWebofScience GoogleScholar4. Tang M, Chang C, Chan L, Heng A. Quality of life and cost of illnessin patients with psoriasis in Malaysia: a multicenterr study. 20185. Langley R. Psoriasis: epidemiology, clinical features, and quality of life.Annals of the Rheumatic Diseases. 2005;64(suppl_2):ii18-ii23.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Melinda Gooderham, Paul Klekotka, Emily Edson Heredia, Joanne Li, Baojin Zhu, Jiaying Guo, Jerry Bagel</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>SKiN Centre for Dermatology, Eli Lilly &amp; Company, Windsor Derma-tology</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>P132</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>MIRIKIZUMAB SIGNIFICANTLY IMPROVES SELF­REPORTED DISEASE SEVERITY AND GENERAL HEALTH STATUS IN PATIENTS WITH MODERATE­TO­SEVERE PSORIASIS</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Introduction: In a randomized, placebo-controlled, phase 2 trial (NCT02899988),�mirikizumab�met�its�primary�efficacy�endpoint�at Week 16.1Objective:To determine if mirikizumab improves patient-reported disease severity and general health status in psoriasis patients at Week 16.Methods: Adults with moderate-to-severe psoriasis were ran-domized 1:1:1:1 to receive placebo (n = 52), mirikizumab 30 mg (n = 51), 100 mg (n = 51), or 300 mg (n = 51) at Weeks 0 and 8. At baseline and Weeks 2, 4, 8, 12, and 16, patients completed the Patient Global Assessment of psoriasis (PtGA) (0 = clear, 5 = se-vere). At baseline and Week 16, patients completed the Medical Outcomes Study 36-Item Short Form Health Survey (SF-36; [range 0–100]) which measures 8 general health status domains that can be scored as mental component and physical component summaries. For continuous measures, comparisons were made by a mixed-effects for repeated measures model (PtGA) or an analysis of covariance model (SF-36). Comparisons of categorical efficacy�variables�were�conducted�by�logistic�regression�analysis�with non-responder imputation (NRI).Results: At Week 16, mirikizumab-treated patients reported greater improvements in psoriasis severity and aspects of physical functio-ning versus placebo (Table).Conclusion: Mirikizumab�treatment�at�various�doses�significantly�improved psoriatic disease severity and physical health status.Reference:1. Reich K et al. Programme and abstracts of Psoriasis from Gene to Clinic; Nov. 30-Dec. 2, 2017; Abstract FC31.Table. Patient-Reported Outcomes (Week 16)Placebon = 51Mirikizumab30 mgn = 48100 mgn = 51300 mgn = 51PtGA, least squares mean(SE)0.4 (0.16)2.2 (0.16)*** 2.9 (0.16)*** 2.8 (0.16)***Change from Baseline in SF-36 Domains, LSM (SE) Physical functioning2.8 (1.9)7.2 (2.0)8.2 (1.9)*7.2 (2.0) Role-physical1.2 (2.4)11.4 (2.5)**11.5 (2.5)**12.3 (2.5)** Bodily pain5.7 (2.8)17.6 (2.9)**19.2 (2.9)*** 18.9 (2.9)** General health1.4 (1.9)5.8 (2.0)3.2 (1.9)5.4 (1.9) Vitality1.0 (2.0)6.9 (2.1)*4.7 (2.0)6.2 (2.0) Social functioning-0.2 (2.4)10.5 (2.4)**13.4 (2.4)*** 8.2 (2.4)* Role-emotional1.3 (2.0)5.2 (2.1)6.1 (2.0)6.0 (2.0) Mental health1.7 (1.8)5.5 (1.8)6.6 (1.8)3.2 (1.8)≥2.5�point�improvement�in�SF-36�MCS, % (NRI)36.537.345.133.3≥2.5�point�improvement�in�SF-36�PCS, % (NRI)42.352.956.962.7*MCS, mental component summary; PtGa, Patient Global Assessment; PCS, physical component summary; SE, standard error; SF-36, 36-Item Short Form Health Survey.*p &lt;  .05 vs placebo; **p &lt;  .01 vs placebo; ***p &lt;  .001 vs placebo. </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Kim Papp, Alexa Kimball, Andrew Blauvelt, Kristian Reich, Melinda Gooderham, Stephen Tyring, Rodney Sinclair, Diamant Thaci, Yang Zhao, Nicole Cichanowitz, Qing Li, Carmen La Rosa</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>K Papp Clinical Research and Probity Medical Research, Waterloo, On-tario, Canada, Harvard Medical School, Boston, MA, Oregon Medical Research Center, Portland, OR, USA, ScIderm Research Institute and Dermatologikum Hamburg, Hamburg, Germany, SKiN Centre for Derma-tology and Probity Medical Research, Peterborough, and Queen’s Univer-sity, Kingston, Ontario, Canada, Department of Dermatology, University of Texas, Houston, TX, USA, University of Melbourne, Melbourne, VIC, Australia, University of Lübeck, Lübeck, Germany, Sun PharmaceuticalIndustries, Inc., Princeton, NJ, Merck &amp; Co., Inc., Kenilworth, NJ, USA</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>P133</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EFFECT OF TILDRAKIZUMAB ON PERSONAL RELATIONSHIPS IN PATIENTS WITH MODERATE­TO­SEVERE CHRONIC PLAQUE PSORIASIS </t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Introduction: The negative impact of psoriasis extends beyondthe patient, affecting his/her social interactions and the qualityof life of cohabitants. Furthermore, patients with psoriasis oftenexperience�sexual�difficulties�because�of�their�disease.Objective:This analysis examined the effect of treatment withtildrakizumab (TIL) on personal relationships of patients withmoderate-to-severe chronic plaque psoriasis.Methods: Patients in two phase 3 trials reSURFACE 1(NCT01722331) and reSURFACE 2 (NCT01729754) wererandomized to subcutaneous TIL 200 mg, 100 mg, or placebo(PBO) and received treatment at weeks 0 and 4. PBO patientswere re-randomized at week 12 to either TIL 200 mg or 100 mg.Etanercept (ETN) 50 mg (semiweekly until week 12 then weeklyuntil week 28) was also a treatment arm in reSURFACE 2. Data onpersonal relationships were collected at weeks 12 and 28 from theDermatology Life Quality Index (DLQI) questionnaire question8 (Q8) “Over the last week, how much has your skin created pro-blems with your partner or any of your close friends or relatives”and question 9 (Q9) “Over the last week, how much has your skincaused�any�sexual�difficulties”.�Each�question�was�scored�on�ascale of 0 (not affected at all) to 3 (very much affected). The datawere pooled from reSURFACE 1 and 2.Results: In all, 1,820 patients had DLQI data. All patients repor-ted a negative effect for Q8 and Q9 at baseline. At week 12, theproportion of patients with no negative effect (score of 0) on per-sonal relationships (Q8 and Q9) was higher for TIL 200 mg, TIL100 mg, and ETN than for PBO (76%, 72%, and 64% vs. 39%,respectively). A similar trend was observed for individual questionsQ8 and Q9. At week 28, more patients on TIL 200 mg and TIL100 mg reported no negative effect on personal relationships thanthose on ETN (85% and 77% vs. 66%; respectively). More patientson TIL 200 mg and TIL 100 mg reported no negative effect thanthose on ETN for Q8 (89% and 81% vs. 70%; respectively) andfor Q9 (89% and 84% vs. 75%, respectively). Conclusions: TIL�had�a�beneficial�effect�on�psoriasis-relatedpersonal�relationship�problems�and�sexual�difficulties,�comparedto placebo and ETN.This abstract was presented at 2018 Annual Meeting of American Academyof Dermatology.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Sonja Ständer, Sabine Steinke, Matthias Augustin, Dieter Me-tze, Karin Loser, Daniel Baeumer, Thomas Luger</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Department of Dermatology and Competence Center Chronic Pruritusand Department of Dermatology, University hospital Münster, Münster,Institute for Health Services Research in Dermatology and Nursing, Ham-burg, and Novartis Pharma, Nuernberg, Germany</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>P134</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>PRURITUS SEVERITY ASSESSMENT AND CORRELATION WITH BASELINE CHARACTERISTICS OF PATIENTS WITH PSORIASIS VULGARIS: AN EXPLORATORY ANALYSIS OF THE PHASE IIIB, PSORITUS STUDY</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Introduction: Chronic pruritus lasts for at least 6 weeks and is amost common symptom in patients with psoriasis. Pruritus is ahighly prevalent and troublesome symptom and has a negativeimpact upon patients’ health-related quality of life (QoL). TheItchyQoL�is�a�pruritus-specific�QoL�questionnaire�that�can�be�app-lied to patients with pruritus independent of the underlying disease.Objective:To assess the impact of pruritus on QoL in patients withpsoriasis by an exploratory analysis of baseline characteristics ofsubjects from the PSORITUS study.Methods: PSORITUS was an exploratory, randomized, double-blind, placebo-controlled 16-week drug withdrawal study with a16-week open-label run-in phase, to assess the kinetics of psoriasissymptoms, pruritus intensity, and lesional biomarkers. Subjects≥18�years�of�age�with�chronic�moderate-to-severe�psoriasis�at�least�6 months prior to baseline, with a Psoriasis Area and Severity Index (PASI) score  &gt; 10�at�baseline,�and�pruritus�intensity�≥30�on�a 100-point Visual Analogue Scale (VAS, the worst itching within a recall period of 24 hours), were included. In an exploratory ba-seline�analysis,�correlation�coefficients�were�calculated�between�ItchyQoL outputs and individual baseline characteristics based on Spearman‘s (r) and Kendall rank correlations (t). A multiple linear regression model was performed to assess the effect of exploratory variables correlating with the ItchyQoL score and achieving�statistical�significance�(p-value  &lt; 0.05).Results: The study included 130 subjects with psoriasis. The subjects had a mean age of 46.8 years (standard deviation [SD], 12.30) and majority (71.5%) were in the age group of 35–64 years. The�mean�(SD)�time�since�first�diagnosis�of�psoriasis�and�psoriatic�arthritis (PsA) was 19.5 (13.81) and 17.2 (18.30) years, respectively; 13.8% of subjects had PsA. The mean (SD) baseline PASI, patient benefit�index�(PBI),�and�ItchyQoL�score�was�23.9�(10.85),�84.2�(24.17), and 78.7 (17.42) respectively, indicating severe disease activity and pruritus. The baseline ItchyQoL score showed moderate correlation with baseline VAS scores for average and worst pruritus (r: 0.542 [95% CI: 0.41, 0.65] and 0.547 [95% CI: 0.41, 0.66]; t: 0.381 [95% CI: 0.22, 0.52] and 0.383, 95% CI: 0.23, 0.52]) and a strong correlation with baseline dermatology life quality index (DLQI) scores (r: 0.803 [95% CI: 0.73, 0.86]; t: 0.622 [95% CI: 0.50, 0.72]. Furthermore the multiple linear regression analysis showed substantial dependency of QoL measured by ItchyQoL for VAS (average pruritus last 24 h), duration of psoriasis and health-related�patient�needs�as�measured�by�patient�benefit�index.Conclusions: ItchyQoL assessment demonstrated that subjects with psoriasis are highly burdened by pruritus and show severely impaired quality of life. The correlation between pruritus intensity, ItchyQoL- and DLQI questionnaire results suggests the need for routine assessment of pruritus in clinical practice. </t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Anargyros Kouris, Eftychia Platsidaki, Alexandros Katoulis, Va-siliki Markanton, Christos Christodoulou, Evangelos Balaskas, Georgios Kontochristopoulos</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Andreas Sygros Skin Hospital, Attikon University Hospital, Athens, Greece</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>P135</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>QUALITY OF LIFE AND PSYCHOSOCIAL IMPLICATIONS IN PATIENTS WITH PSORIASIS</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Introduction: Psoriasis is a common, long-term skin disease that affects approximately 1.5–3% of the population. The burden of living with psoriasis is equivalent to or greater than that seen in other long-term conditions, such as cardiac failure and chronic lung disease. The stigma provoked by the disease, often lead to the discontinuation of daily activities and social withdrawal. Nevertheless, these effects of psoriasis are seldom recognized and often undertreated.Objectives: The aim of the study is to evaluate the quality of life, anxiety and depression, self-esteem and loneliness in patients with psoriasis.Methods: Ninety-eight patients with psoriasis were enrolled in the study. The quality of life, depression and anxiety, loneliness and self-esteem of the patient were assessed using the Dermatology Life Quality Index, Hospital Anxiety and Depression Scale, the UCLA loneliness Scale (UCLA-Version 3) and Rosenberg’s Self-esteem Scale, respectively.Results: The Dermatology Quality of Life Index score among pso-riasis patients was 13.52±4.58.�They�had�statistically�significantly�higher scores according to the Hospital Anxiety and Depression Scale -anxiety subscale (p = 0.031)-compared with healthy volun-teers.�Moreover,�a�statistically�significant�difference�was�found�between the two groups concerning the UCLA-scale (p = 0.032) and RSES-scale (p &lt; 0.0001). Female patients presented with lower self-esteem than male patients.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Charlotta Enerbäck, Sofie Fors, Anna-Karin Dahlborn</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Department of Dermatology, Linköping University Hospital, Linköping,Sweden, Novartis</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>P136</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>SWEDISH PSORIATIC PATIENTS’ PERSPECTIVE OF THEIR DISEASE. RESULTS FROM AN OBSERVATIONAL PATIENT SURVEY</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Introduction: A global patient survey was adapted and implemen-ted in Sweden, in order to explore and understand the patients’ viewon their disease, as well as the personal and emotional impact oftheir psoriasis. The focus of the survey was the patient’s perceptionof the possibility to achieve clear skin, and how having clear skincould affect their quality of life. A publication based on earlierdata is under review. Methods: The Swedish “Clear about Psoriasis” survey was conduc-ted from June 16 2017 to August 8 2017. Recruitment was madevia online panels and patient organizations. Validated methodswere used to assess severity of disease and health-related qualityof life. The survey consisted of multiple-choice questions, nodefinition�of�clear�skin�was�given,�and�spontaneous�feelings/per-ceptions�were�reported.�Respondents�(≥18�years�old)�were�requiredto have current plaque psoriasis, for which they had received amedical diagnosis and should not have participated in an onlinesurvey about psoriasis in the preceding four weeks. The analysisincluded only patients with moderate-to-severe plaque psoriasis,defined�as�a�Psoriasis�Area�Severity�Index�(PASI)�score�≥10,�ora PASI score 5.0–9.9 with plaques in visible and/or in sensitiveareas, such as the face and genitals. Results: In total, 54 patient responses were completed and analy-zed. Mean age was 45 years and 80% were female. The averageself-assessed PASI score was 16.0, 26% had PASI 5.0–9.9, 74%PASI  &gt; 10 and 54% reported to have psoriatic arthritis. Currenttreatment allowed 44% of patients to achieve clear or almost clearskin. Clear or almost clear skin was believed to be achievable by30% of the patients. Of patients reaching clear or almost clearskin, 71% had talked to their physician about their aim for clearskin. Among patients who have not achieved clear or almost clearskin, 47% had spoken to their physician about their aim. 57% ofthe�patients�were�satisfied�with�their�current�treatment.�The�mostimportant reasons for treatment satisfaction were less itching (81%),and the achievement of less pain and soreness (55%). Not achievingclear skin was the major reason for dissatisfaction. Discriminationor humiliation has been experienced by 98%. About 69% havebeen asked if they are contagious. Relationships were affected and52% avoided to have sex. Worklife was affected by 65% of therespondents. For 58% of patients it took more than 5 years to geta treatment that resulted in clear or almost clear skin. During thelast 6 months, 24% of employed patients had taken at least one dayoff work due to their disease whilst 5% took more than 14 days.Conclusions: This survey shows that a majority of patients do notbelieve achieving clear or almost clear skin is possible and theyare not comfortable to talk to their physician about it. Furthermore,patients encounter a stigmatizing environment. Better treatmentas well as improved patient information is needed. Novartis is grateful to Psoriasisförbundet for facilitating the survey.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Andrew Blauvelt, Mark Lomaga, Russel Burge, Baojin Zhu,Carsten Henneges, Wei Shen, David Shrom, Martin Dossen-bach, Andreas Pinter</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Oregon Medical Research Center, DermEdge Research, Eli Lilly andCompany, University Hospital Frankfurt</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>P137</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IXEKIZUMAB PROVIDES GREATER CUMULA TIVE BENEFITS VERSUS USTEKINUMAB OVER 24 WEEKS FOR PATIENTS WITH MODERATE­TO­SEVERE PSORIASIS IN A RANDOMIZED, DOUBLE­BLIND PHASE 3B CLINICAL TRIAL </t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Introduction: Ixekizumab,�a�high-affinity�monoclonal�antibody�that selectively targets IL-17A, was shown to be superior to uste-kinumab, an IL-12/23 inhibitor, with respect to skin clearance and quality of life up to 24 wks in patients with moderate-to-severe psoriasis in IXORA-S1.Objectives: The objective of this analysis was to compare the cumulative�benefits�of�ixekizumab�versus�ustekinumab�at�12�and�24 weeks of treatment in IXORA-S, with respect to skin clearance, itching, health-related quality of life (HRQoL), and pain.Methods: In the IXORA-S trial, patients were randomized (1:1) to receive either IXE (160-mg starting dose, then 80-mg every 2 wks for 12 wks followed by 80-mg every 4 wks; n = 136) or UST (45–mg/90-mg weight-based dosing per label; n = 166) through 52 wks. Data at week 12 and week 24 were used in this post-hoc analysis.�At�wks�2,�4,�and�every�4�wks�thereafter,�clinical�benefits�were measured using percentage improvements in Psoriasis Area and Severity Index (PASI 75/90/100); the Itch Numeric Rating Scale (NRS; 0 = no itch, 10 = worst itch imaginable); and Skin Pain VAS (0 = no pain, 100 = maximum pain). Health-related quality of�life�(HRQoL)�benefit�was�measured�at�wks�2,�4,�12,�and�24�using the Dermatology Life Quality Index (DLQI) [DLQI score  =  0.1�indicates�no�effect�on�patient’s�life].�Total�benefits�-�PASI�75/90/100; itch NRS = 0; DLQI = 0.1; Pain VAS 0 – were used to determine the area-under-the-curve (AUC) of responders for each outcome at 12 and 24 weeks. Missing values were imputed using non-responder imputation (NRI). AUC results, capturing the rapid and sustained treatment response, were normalized as a percentage of�maximum�possible�(0–100%)�AUC.�The�clinical�benefit�ratios�between IXE vs UST were calculated for each outcome to show relative�cumulative�benefit.Results: At�12�wks,�the�normalized�cumulative�clinical�benefit�with IXE vs UST, respectively, was 58.2% and 32.9% (PASI75); 36.7% and 15.6% (PASI90); 14.2% and 4.0% (PASI100); 25.3% and 14.3% (itch); 36.0% and 23.7% (pain); and 44.9% and 25.2% (DLQI).�Cumulative�clinical�benefits�at�week�24�for�IXE�and�UST,�respectively, were 74.3% and 54.3% (PASI75), 58.1% and 32.3% (PASI90), 29.0% and 12.2% (PASI100); 33.5% and 22.1% (itch); 42.7% and 30.6% (pain); and 54.3% and 37.0% (DLQI). At 12 wks, clinical�benefit�ratios�(IXE/UST)�for�PASI�75/90/100�were�1.77,�2.36, and 3.52; 1.51 for pain; and 1.78 for both itch and DLQI. At 24 wks, the ratios were 1.37, 1.80, 2.38 (PASI 75/90/100), 1.52 (itch), 1.39 (pain) and 1.47 (DLQI).Conclusions: Cumulative�benefits�measured�by�PASI,�itch,�pain,�and DLQI responders were greater for IXE vs. UST following 12 and�24�wks�of�treatment.�Long-term�cumulative�benefits�will�be�addressed upon publication of Week 52 results from the IXORA-S trial.Reference:Reich K, et al. Br J Dermatol. 2017;177(4):1014-1023.Previously presented at AAD, San Diego, CA; February 16 – 20, 2018. </t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Nicolai Böhme, Ann-Dörthe Holst, Friedrich Dybowski, Chris-toph Volberg, Hans-Georg Pott, Udo Lendl</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Healthcare at Home Deutschland GmbH, Weinheim, Rheumapraxis, Lud-wigslust, Rheumapraxis Ruhr, Herne, Rheumatologie in Neuss, Neuss, Rheumatologikum Hannover, Hannover, UCB Pharma GmbH, Monheim am Rhein, Germany</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>P138</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>COACH@HOME: A SUPPORT PROGRAM FOR PATIENTS TREATED WITH CERTOLIZUMAB PEGOL</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Introduction: Coach@home (c@h) is a German support program for certolizumab pegol (CZP)-treated patients (pts) with rheumatic diseases, including psoriatic arthritis (PsA). Eight coaching calls are offered over one year, scheduled around critical milestones on the therapeutic journey. These are made by trained nurses, who offer support and information about both the pt’s disease and its treatment with CZP.Objectives: To assess the baseline characteristics of PsA pts sub-scribed to c@h, and the level of pt satisfaction with the programacross indications (Sep 2017 data cut).Methods: c@h was launched in Jun 2014, and is available to ptswho are prescribed CZP according to the local product label. Ptsmust�be�CZP-naïve�when�subscribed�to�the�program,�and�pt�consentis required prior to subscription by the treating physician. Thereare no additional criteria for enrolment, although the program mustbe recommended to the pt by the treating physician. Pt satisfactionacross indications (PsA, rheumatoid arthritis and axial spondylo-arthritis) was measured at program completion or discontinuationusing the net promoter score (NPS), which has previously beenused for this purpose.1 The NPS is derived by asking pts to statethe likelihood that they would recommend c@h to others (on a0–10 scale). Rankings of 9–10 are considered ‘promoters’, 7–8‘passives’, and 0–6 ‘detractors’. Subtracting the percentage ofdetractors from that of promoters yields the NPS.Results: A cumulative total of 136 PsA pts had been registered toc@h by Sep 2017. Mean age at baseline was 52 years; the majoritywere female (69%). Prior biological DMARD exposure was 24%.The most common topics discussed on calls were treatment adhe-rence (290 calls), CZP maintenance dose (284 calls) and syringedisposal (201 calls). The average length per call was 15.7 min(SD: 5.33) at the end of Week 0 (total: 135 calls), and 14.6 min(SD: 6.59) at the end of Week 52 (45 calls).Across indications, a cumulative total of 272/655 pts had eithercompleted the coaching period (n = 70) or discontinued (n = 202)by 28 Sep 2017, of whom 106 rated the program. Of these, 87.5%gave promoter scores, 10.4% passive, and 3.8% detractor, yiel-ding an NPS of 83.7. The program was still ongoing at the timeof this data cut.Conclusions: c@h offers support and guidance to CZP-treated ptsin Germany. Feedback from pts willing to provide a rating (39%)indicates a high level of satisfaction with the program.References:1. Hamilton DF. Bone Joint J 2014;96-B(5):622–8.Acknowledgements: c@h is performed by Healthcare@home DeutschlandGmbH, funded by UCB Pharma, led by Elke Zeise and managed by KarenThiel and Manh Dan Nguyen. We thank the patients and their caregiversin addition to the investigators and their teams who contributed to thisprogram. Editorial services were provided by Costello Medical. </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Mark Lebwohl, Abby S Van Voorhees, Michael Siegel, LindseyShankle, Lisa Pisenti, Mohamed Yassine</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Icahn School of Medicine at Mount Sinai, New York, NY, Eastern VirginiaMedical School, Norfolk, VA, National Psoriasis Foundation, Portland,OR, UCB Pharma, Smyrna, GA, USA</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>P139</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>A COMPREHENSIVE SURVEY ASSESSING THE FAMILY PLANNING NEEDS OF WOMEN WITH PSORIASIS</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Introduction: Psoriasis (PS) in women often overlaps with theirpeak reproductive years. Data on the family planning (FP) ex-perience of patients (pts) are therefore needed to optimize PSmanagement.Objectives: To report the results of a survey evaluating the FPneeds of women with PS.Methods: Women of childbearing potential (WoCP; aged 18–45)diagnosed with PS (including pts with psoriatic arthritis), wererecruited to complete a 96-question web-based survey on Sur-veyGizmo®.�The�survey�included�questions�on�pts’�experience,concerns and educational needs, and was disseminated using e-blasts (the National Psoriasis Foundation, Advance E-News, andTalkPsoriasis.org mailing lists) and social media (Facebook andTwitter). Responses were collected Dec 2017–Feb 2018.Results: Of 141 pts completing the survey, 91 (65%) were plan-ning to conceive (PTC), and 66 (47%) had experienced pregnancy(EP) within the last 5 years. Prescribed systemic medications werebeing used by 40% of pts PTC and 12% of pts who had EP. Only 41% pts who had EP informed the healthcare provider (HCP) treating their PS of their pregnancy right away, while 21% did not notify them at all.While PTC, most pts who had not EP (88%), sought FP advice from the internet; only 21% had consulted the HCP treating their PS, compared to 55% of pts who had EP. Of the 96 pts who discussed FP with the HCP treating their PS, just 7% said this was initiated by the�HCP.�Pts�PTC�were�most�influenced�by�their�personal�network�(e.g. family), but of pts who had EP, 41% said the HCP treating their�PS�was�one�of�the�most�influential�types�of�support�in�their�FP decisions. Pts reported wanting information on the impact of PS�and�treatments�on�their�baby,�the�heritability�of�PS,�and�flare�management during pregnancy. During pregnancy, 65% pts who had EP stopped treatment (of any type), 79% of whom did so out of fear of harming their baby. In 40% cases where pts had stopped all and any treatment for PSO, the decision was initiated by the pt, and in 47%, by their PS treatment provider. Of pts who stopped treatment, 44% experienced a worsening in the severity of their PS,�yet�most�pts�do/did�not�have�a�plan�for�flare�management�during pregnancy (PTC: 69%; EP: 65%). Many pts stopping all treatment had not been advised on restarting treatment post-partum (PTC: 42%; EP: 23%).Conclusions: Many WoCP with PS take systemic medications but many do not discuss FP with their PS treatment provider, and if they do, the discussion is rarely initiated by the HCP. PS treatment providers should prioritize discussing FP, and plan treatment around and during pregnancy. The educational needs of WoCP with�PS�include�the�impact�of�treatment�on�their�baby,�flare�ma-nagement during pregnancy, and restarting treatment post-partum.Acknowledgements: This study was funded by UCB Pharma. The survey was conducted by the National Psoriasis Foundation. We thank the pa-tients who contributed to this study. Editorial services were provided by Costello Medical.</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Caitriona Ryan, Carl Vandeloo, Duncan Munro, Alvaro Arjona</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Blackrock Clinic, Dublin, Ireland and University College, Dublin, Ireland, UCB Pharma, Brussels, Belgium, Cello Health, London, UK</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>P140</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>THE PSYCHOSOCIAL IMPACT OF PSORIASIS: DIFFERENTIAL EXPERIENCES OF MEN AND WOMEN IN EARLY ADULTHOOD</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Introduction: Plaque psoriasis (PSO) can have a profound im-pact on patients’ (pts’) psychosocial wellbeing, leading to self-consciousness, embarrassment, depression, social isolation and stigmatization. However, little is known of how the impact of disease differs between genders. Objective:To evaluate differences in the psychosocial impact of PSO on quality of life in men and women in early adulthood. Methods: Pts�aged�≥18�in�the�US,�Canada,�France,�Germany�and�Italy without a diagnosis of psoriatic arthritis were invited to complete a postal survey (Oct 2016–Jan 2017), in the ratio 3:1 as being treated with advanced therapy (biologic/apremilast), or eligible for but not yet receiving advanced therapy. Answers were given on 5- or 7-point Likert Scale. Percentages shown are proportions of pts responding using either of the two responses indicating greatest impact of disease. Data are presented for pts in early�adulthood�(18–45�years),[1]�stratified�by�gender.�Results: 63 women and 73 men completed the survey; mean age was 35 and 36 years, respectively, mean age at diagnosis was 28 for both genders. Disease distribution was similar between genders, although women reported more severe disease affecting their arms and males reported more severe scalp disease. Whilst physical impacts of disease were similar ( ≤ 2 pts reported severe problems with walking, washing/dressing, carrying out housework/family/leisure activities or daily work), a higher proportion of women (14% vs 4%) reported severe/extreme pain or discomfort. Both genders were more concerned by appearance (women: 73%, men:63%) than pain (women: 43%, men: 34%). A higher proportion of women than men were concerned by theirappearance (73% vs 63%), reported a greater impact on theirchoice of clothing (37% vs 21%), and always/usually tried tocover their skin (27% vs 16%). Similarly, psychosocial effects ofdisease tended to be greater in women: 16% women vs 8% menreported severe/extreme anxiety or depression; 29% women vs18% men suffered sexually/in achieving intimacy. Similar pro-portions had suffered at work (women: 11%, men: 16%), whilea higher proportion of women (6%) than men (3%) struggled tolive�their�lives�as�they�did�prior�to�their�diagnosis.�These�findingshave been corroborated by ethnography studies.Conclusion: Despite similar clinical manifestations of PSO,women in early adulthood tended to report a greater impact oftheir disease on their lives, both physically, in terms of pain, andpsychosocially, in terms of effects on relationships and impact ontheir daily lives. Physician awareness of such gender differencesin the impact of the disease on patients’ lives would encouragea more holistic approach to discussing treatment options withtheir patients.Reference:1. A Conception of Adult Development. Daniel J. Levinson. 1986. Ame-rican Psychologist vol. 41, No. 1, 3-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Diamant Thaçi, Alice B Gottlieb, Kristian Reich, Jerry Bagel,Luke Peterson, Oana Purcaru, Jolanta Węgłowska</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>University Hospital of Schleswig-Holstein Campus Lübeck, Lübeck, Ger-many, Department of Dermatology, New York Medical College at Met-ropolitan Hospital, NY, NY, SCIderm Research Institute, Hamburg, andDermatologikum Berlin, Germany, Psoriasis Treatment Center of CentralNew Jersey, East Windsor, NJ, UCB Pharma, Raleigh, NC, USA, UCBPharma, Brussels, Belgium, Niepubliczny Zakład Opieki Zdrowotnej mul-tiMedica, Wrocław, Poland</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>P141</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>CERTOLIZUMAB PEGOL IMPROVES PATIENT­REPORTED OUTCOMES IN CHRONIC PLAQUE PSORIASIS OVER 1 YEAR</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Introduction: Certolizumab pegol (CZP) is an Fc-free, PEGylated,anti-TNF biologic. Here we present patient (pt)-reported quality oflife (QoL), work productivity and social activities over 48 weeksof CZP treatment.Materials/Methods: Data were pooled from CIMPASI-1(NCT02326298) and CIMPASI-2 (NCT02326272) phase 3 trialsof�adults�with�PSO�≥6�months�(psoriasis�area�and�severity�index[PASI]�≥12,�affected�body�surface�area�[BSA]�≥10%,�physician’sglobal�assessment�[PGA]�≥3/5).�Pts�were�randomized�to�CZP�400mg every 2 weeks (Q2W), CZP 200 mg Q2W (following 400 mgloading dose at Weeks 0, 2, 4), or placebo (PBO) Q2W for 16weeks. Week 16 CZP-treated PASI 50 responders continued initialblinded treatment to Week 48 (PBO-treated PASI 50 respondersare not included). PASI 50 non-responders at Weeks 32, 40 and48 were discontinued.Mean change from baseline (CFB) in Dermatology Life QualityIndex (DLQI), rates for DLQI minimally clinically important diffe-rence�(MCID;�≥4-point�improvement)�and�DLQI�remission�(scoreof 0/1), and CFB in Work Productivity and Activity Impairment(WPAI)�PSO-specific�at�Weeks�16�and�48�were�assessed.�NegativeCFB�for�DLQI�and�WPAI�signifies�improvement.�CFB�DLQIanalyses used last observation carried forward (LOCF) imputationfor missing data, DLQI MCID and remission analyses used non-responder imputation, WPAI analyses used last observation carriedforward imputation at Week 16 and observed data at Week 48.Results: At Week 16, CZP pts showed greater improvements inDLQI vs PBO, and higher proportions achieved DLQI MCID andDLQI remission (Table). Improvements were maintained to Week48 in CZP-treated pts who continued treatment (Table). Improve-ments in work productivity and reductions in activity impairment were seen with both CZP doses vs PBO; and were maintained to Week 48 in patients remaining in the trial. (Table).Conclusions: Treatment with CZP was associated with improve-ments in QoL, work productivity and social activities vs PBO at Week 16, which was maintained to Week 48 in patients remaining in the trials.Table. Improvements in DLQI and WPAI at Weeks 16 and 48PBO(n = 100)CZP 400 mg Q2W(n = 175)CZP 200 mg Q2W(n = 186)Week 16Week 16Week 48Week 16Week 48DLQIMean CFB (SD)-3.1 (6.7)-9.8 (7.0)-10.3 (7.5)-10.0 (8.2)-9.7 (8.4)MCID, n (%)41 (41.0)135 (77.5)121 (69.1)131 (70.4)113 (60.8)DLQI 0/1, n (%)7 (7.0)84 (48.0)90 (51.4)87 (46.8)78 (41.9)WPAI Domains, mean change from baseline (SD)Absenteeism2.9 (22.1)4.7 (22.7)-0.1 (17.5)[n = 96]0.7 (21.7)2.6 (15.6)[n = 89]Presenteeism0.7 (21.8)-12.9 (25.2)-17.0 (26.1)[n = 96]-9.6 (25.3)-9.9 (27.1)[n = 89]Work productivity loss4.8 (28.5)-9.0 (32.7)-16.4 (28.9)[n = 96]-9.0 (31.5)-8.0 (30.1)[n = 89]Activity impairment-1.5 (25.3)-23.9 (28.3)-28.6 (28.9)[n = 129]-21.0 (31.9) -23.9 (29.4)[n = 132]</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Matthias Augustin, Claudia Luck-Sikorski, Rachel Sommer, Ja-nine Topp, Ines Schaefer, Marc Radtke, Sophie Schlette, Nata-scha Weinberger, Regina Spreckelsen, Anja Hilbert, Alexander Zink, Dagmar Wilsmann-Theis, Eckardt Breitbart, Ulrich Mro-wietz</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>University Medical Center Hamburg-Eppendorf, University Gera, BVDD, University of Leipzig, University Hospital Kiel, University Med-ical Center Leipzig, University Munich, University Bonn, Dermatology Breitbart, University Kiel</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>P142</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TRANSLATING WHO RESOLUTION INTO THE PUBLIC: THE GERMAN PROGRAM AGAINST STIGMATIZATION OF PEOPLE WITH CHRONIC VISIBLE SKIN DISEASES </t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Introduction: The WHO resolution 2014 raised fundamental demands for the health care system to increase the awareness for patients with chronic skin diseases such as psoriasis, including its fight�against�stigmatization.�Single�member�states�were�encouraged�to take action on all levels, including public awareness campaigns. After a period of refusal, the German ministry of health approved a project submitted by German dermatologists, patient groups and further experts to develop interventions against stigmatization. Objectives- Aim of investigation: The project aims to develop and evaluate public interventions against stigmatization of people with visible skin diseases.Methods: The project consist of three phases. Within a one-year period current research will be processed through a systematic literature search; recommendations for intervention formats will be derived. The consecutive 18 months involve the development of�defined�intervention�formats.�The�interventions�are�supposed�to focus on locations of stigma and encounters of stigmatizing with stigmatized persons.Results: The application has been approved and is funded by the German ministry of health for a period of three years throughout the years 2018 to 2021. The project group consists of 25 der-matology-, science- and patient-experts who work in operative groups in order to develop the content and the intervention for-mat. In doing so, different levels of the stigmatization process, namely stereotypes, prejudice, discrimination are considered as important aspects and will be accounted for in the development of the intervention. First results of the literature review imply that people with visible skin disease such as psoriasis are affected by stigmatization in several dimensions and strategies for reducing the stigma are required.Conclusion: Following the WHO resolution, this project is an ex-ample for successful project initiation of an interdisciplinary team to develop and implement an intervention against stigmatization. First outcomes will be a comprehensive review of papers derivedfrom the systematic literature search in May 2018.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Matthias Augustin, Nirohshah Suthakharan, Christine Janus,Jennifer Austin, Christine Bundy, Rachael Pattinson</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>University Medical Center Hamburg, Institute for Health Services Re-search in Dermatology and Nursing (IVDP), International Alliance ofDermatology Patient Organisations – IADPO, University of Cardiff</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>P143</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>THE GLOBAL RESEARCH ON THE IMPACT OF DERMATOLOGICAL DISEASES (GRIDD)</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Introduction: The Global Research on the Impact of Dermatolo-gical�Diseases�(GRIDD)�project�will�be�the�first�global�patient-initiated and patient-led impact research study in dermatology.By including the patient perspective stringently into the burdenmetrics,�this�will�be�the�first�program�to�systematically�challengethe current Global Burden of Disease concept, which markedlyunderestimates the patient burden of skin diseases. Objective:The objective of the GRIDD research project is todevelop a comprehensive measure of the impact of living withskin diseases instruments by country, regionally and worldwide.The global instrument, developed with patient organisations,will capture patient experiences, including the extent of diseaseimpact and burden for patients and their families, for generic (i.e.all�dermatological�diseases)�and�specific�dermatological�diseaseincluding psoriasis assessment worldwide. Materials + Methods: Development of the comprehensive mea-sure of impact of disease will be based on a novel methodologywith several phases. Phase 1 will systematically review existingmeasures of the life impact of skin diseases and conduct a patient-centered�item�identification�exercise.�Phase�2�will�be�informed�byPhase 1 data and will focus on instrument development: developthe wording for items (i.e. impact categories) and appropriateitem scaling. This measure will describe the impact on life whichmay include economic; psychological and social impacts. Phase3 describes the acquisition of real world data to further test thevalidity and acceptability of the new measure. Lastly, phase 4 and5 include dissemination and launch of data, the new measure andan implementation strategy to increase uptake of the measure.Results: GRIDD�has�assembled�a�scientific�advisory�board�repre-senting different regions worldwide. Currently, we are collabora-ting with over 100 patient associations in 32 countries worldwide,with more than 26 disease areas. Industry funding has been securedfrom�five�different�companies�for�the�first�phase�and�a�portion�ofphase 2. The GRIDD research team, including researcher from theUniversity Medical Center in Hamburg and University of Cardiff,met in 2017 to start phases 1 and 2. The systematic literature reviewon “Existing patient-centred outcome measures currently used indermatology” is currently underway.Conclusion: This novel patient-centric methodology will com-plement existing concepts of evaluating patient perspective indermatology. GRIDD will provide an extended patient view forbetter decision making in dermatology on a global and countrylevel. It supports local, regional and international attempts to createawareness, better position psoriasis and other skin diseases andencourage decision-makers and stakeholders to include dermato-logical diseases in their policies. </t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
